--- a/data_month/zb/房地产/商品房销售面积.xlsx
+++ b/data_month/zb/房地产/商品房销售面积.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G243"/>
+  <dimension ref="A1:J243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,26 @@
           <t>商品房销售面积_累计增长</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>商品房期房销售面积</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>商品房现房销售面积</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>商品房销售面积</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年10月</t>
+          <t>2000-02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -476,16 +491,21 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>8248.799999999999</v>
+        <v>636.1</v>
       </c>
       <c r="G2" t="n">
-        <v>36.1</v>
+        <v>53.3</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>636.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年11月</t>
+          <t>2000-03</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -493,16 +513,21 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>9553.299999999999</v>
+        <v>1391.55</v>
       </c>
       <c r="G3" t="n">
-        <v>35.3</v>
+        <v>35.7</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>755.4499999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年12月</t>
+          <t>2000-04</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -510,16 +535,21 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>16984.1</v>
+        <v>2153.9</v>
       </c>
       <c r="G4" t="n">
-        <v>26.9</v>
+        <v>35.8</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>762.3500000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2000年2月</t>
+          <t>2000-05</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -527,16 +557,21 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>636.1</v>
+        <v>2958.1</v>
       </c>
       <c r="G5" t="n">
-        <v>53.3</v>
+        <v>37.8</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>804.1999999999998</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2000年3月</t>
+          <t>2000-06</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -544,16 +579,21 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>1391.55</v>
+        <v>4073.2</v>
       </c>
       <c r="G6" t="n">
-        <v>35.7</v>
+        <v>36.7</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1115.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2000年4月</t>
+          <t>2000-07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -561,16 +601,21 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>2153.9</v>
+        <v>5014.8</v>
       </c>
       <c r="G7" t="n">
-        <v>35.8</v>
+        <v>38</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>941.6000000000004</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2000年5月</t>
+          <t>2000-08</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -578,16 +623,21 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>2958.1</v>
+        <v>6006.9</v>
       </c>
       <c r="G8" t="n">
-        <v>37.8</v>
+        <v>40.1</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>992.0999999999995</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2000年6月</t>
+          <t>2000-09</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -595,16 +645,21 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>4073.2</v>
+        <v>7088.7</v>
       </c>
       <c r="G9" t="n">
-        <v>36.7</v>
+        <v>38.9</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1081.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2000年7月</t>
+          <t>2000-10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -612,16 +667,21 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>5014.8</v>
+        <v>8248.799999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>38</v>
+        <v>36.1</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1160.099999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2000年8月</t>
+          <t>2000-11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -629,16 +689,21 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>6006.9</v>
+        <v>9553.299999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>40.1</v>
+        <v>35.3</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1304.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2000年9月</t>
+          <t>2000-12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -646,16 +711,21 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>7088.7</v>
+        <v>16984.1</v>
       </c>
       <c r="G12" t="n">
-        <v>38.9</v>
+        <v>26.9</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>7430.799999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2001年10月</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -663,16 +733,21 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>10168.94</v>
+        <v>877.96</v>
       </c>
       <c r="G13" t="n">
-        <v>23.3</v>
+        <v>38</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>877.96</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2001年11月</t>
+          <t>2001-03</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -680,16 +755,21 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>11617.55</v>
+        <v>1828.72</v>
       </c>
       <c r="G14" t="n">
-        <v>21.6</v>
+        <v>31.4</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>950.76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2001年12月</t>
+          <t>2001-04</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -697,16 +777,21 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>20779.24</v>
+        <v>2800.78</v>
       </c>
       <c r="G15" t="n">
-        <v>22.3</v>
+        <v>30</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>972.0600000000002</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2001年2月</t>
+          <t>2001-05</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -714,16 +799,21 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>877.96</v>
+        <v>3795.05</v>
       </c>
       <c r="G16" t="n">
-        <v>38</v>
+        <v>28.3</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>994.27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2001年3月</t>
+          <t>2001-06</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -731,16 +821,21 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>1828.72</v>
+        <v>5126.57</v>
       </c>
       <c r="G17" t="n">
-        <v>31.4</v>
+        <v>25.9</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1331.52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2001年4月</t>
+          <t>2001-07</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -748,16 +843,21 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>2800.78</v>
+        <v>6365.29</v>
       </c>
       <c r="G18" t="n">
-        <v>30</v>
+        <v>26.9</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1238.72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2001年5月</t>
+          <t>2001-08</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -765,16 +865,21 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>3795.05</v>
+        <v>7603.85</v>
       </c>
       <c r="G19" t="n">
-        <v>28.3</v>
+        <v>26.6</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1238.56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2001年6月</t>
+          <t>2001-09</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -782,16 +887,21 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>5126.57</v>
+        <v>8977.27</v>
       </c>
       <c r="G20" t="n">
-        <v>25.9</v>
+        <v>26.6</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1373.42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2001年7月</t>
+          <t>2001-10</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -799,16 +909,21 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>6365.29</v>
+        <v>10168.94</v>
       </c>
       <c r="G21" t="n">
-        <v>26.9</v>
+        <v>23.3</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1191.67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2001年8月</t>
+          <t>2001-11</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -816,16 +931,21 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>7603.85</v>
+        <v>11617.55</v>
       </c>
       <c r="G22" t="n">
-        <v>26.6</v>
+        <v>21.6</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1448.609999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2001年9月</t>
+          <t>2001-12</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -833,16 +953,21 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>8977.27</v>
+        <v>20779.24</v>
       </c>
       <c r="G23" t="n">
-        <v>26.6</v>
+        <v>22.3</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>9161.690000000002</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2002年10月</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -850,16 +975,21 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>12975.9</v>
+        <v>923.75</v>
       </c>
       <c r="G24" t="n">
-        <v>27.6</v>
+        <v>5.2</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>923.75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2002年11月</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -867,16 +997,21 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>15079.36</v>
+        <v>2152.66</v>
       </c>
       <c r="G25" t="n">
-        <v>29.8</v>
+        <v>17.7</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1228.91</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2002年12月</t>
+          <t>2002-04</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -884,16 +1019,21 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>24969.29</v>
+        <v>3379.57</v>
       </c>
       <c r="G26" t="n">
-        <v>20.2</v>
+        <v>20.7</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1226.91</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2002年2月</t>
+          <t>2002-05</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -901,16 +1041,21 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>923.75</v>
+        <v>4564.6</v>
       </c>
       <c r="G27" t="n">
-        <v>5.2</v>
+        <v>20.3</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1185.03</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2002年3月</t>
+          <t>2002-06</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -918,16 +1063,21 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>2152.66</v>
+        <v>6279.85</v>
       </c>
       <c r="G28" t="n">
-        <v>17.7</v>
+        <v>22.5</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1715.25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2002年4月</t>
+          <t>2002-07</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -935,16 +1085,21 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>3379.57</v>
+        <v>7689.7</v>
       </c>
       <c r="G29" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1409.849999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2002年5月</t>
+          <t>2002-08</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -952,16 +1107,21 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>4564.6</v>
+        <v>9300.17</v>
       </c>
       <c r="G30" t="n">
-        <v>20.3</v>
+        <v>22.3</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1610.47</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2002年6月</t>
+          <t>2002-09</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -969,16 +1129,21 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>6279.85</v>
+        <v>11129.09</v>
       </c>
       <c r="G31" t="n">
-        <v>22.5</v>
+        <v>24</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1828.92</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2002年7月</t>
+          <t>2002-10</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -986,16 +1151,21 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>7689.7</v>
+        <v>12975.9</v>
       </c>
       <c r="G32" t="n">
-        <v>20.8</v>
+        <v>27.6</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1846.809999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2002年8月</t>
+          <t>2002-11</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -1003,16 +1173,21 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>9300.17</v>
+        <v>15079.36</v>
       </c>
       <c r="G33" t="n">
-        <v>22.3</v>
+        <v>29.8</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>2103.460000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2002年9月</t>
+          <t>2002-12</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1020,16 +1195,21 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>11129.09</v>
+        <v>24969.29</v>
       </c>
       <c r="G34" t="n">
-        <v>24</v>
+        <v>20.2</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>9889.93</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2003年10月</t>
+          <t>2003-02</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -1037,16 +1217,21 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>17447.89</v>
+        <v>1560.38</v>
       </c>
       <c r="G35" t="n">
-        <v>34</v>
+        <v>68.90000000000001</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1560.38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2003年11月</t>
+          <t>2003-03</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1054,16 +1239,21 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>19950.2</v>
+        <v>3125.42</v>
       </c>
       <c r="G36" t="n">
-        <v>32</v>
+        <v>45.2</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1565.04</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2003年12月</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -1071,16 +1261,21 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>32247.24</v>
+        <v>4632.51</v>
       </c>
       <c r="G37" t="n">
-        <v>29.1</v>
+        <v>36.4</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1507.09</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2003年2月</t>
+          <t>2003-05</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1088,16 +1283,21 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>1560.38</v>
+        <v>6333.16</v>
       </c>
       <c r="G38" t="n">
-        <v>68.90000000000001</v>
+        <v>37.5</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1700.65</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2003年3月</t>
+          <t>2003-06</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1105,16 +1305,21 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>3125.42</v>
+        <v>8672.35</v>
       </c>
       <c r="G39" t="n">
-        <v>45.2</v>
+        <v>37.4</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>2339.190000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2003年4月</t>
+          <t>2003-07</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1122,16 +1327,21 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
-        <v>4632.51</v>
+        <v>10657.13</v>
       </c>
       <c r="G40" t="n">
-        <v>36.4</v>
+        <v>38</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1984.779999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2003年5月</t>
+          <t>2003-08</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1139,16 +1349,21 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>6333.16</v>
+        <v>12628.7</v>
       </c>
       <c r="G41" t="n">
-        <v>37.5</v>
+        <v>35</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1971.570000000002</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2003年6月</t>
+          <t>2003-09</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1156,16 +1371,21 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
-        <v>8672.35</v>
+        <v>15189.24</v>
       </c>
       <c r="G42" t="n">
-        <v>37.4</v>
+        <v>35.9</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>2560.539999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2003年7月</t>
+          <t>2003-10</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -1173,16 +1393,21 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
-        <v>10657.13</v>
+        <v>17447.89</v>
       </c>
       <c r="G43" t="n">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>2258.65</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2003年8月</t>
+          <t>2003-11</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1190,16 +1415,21 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>12628.7</v>
+        <v>19950.2</v>
       </c>
       <c r="G44" t="n">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>2502.310000000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2003年9月</t>
+          <t>2003-12</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1207,16 +1437,21 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
-        <v>15189.24</v>
+        <v>32247.24</v>
       </c>
       <c r="G45" t="n">
-        <v>35.9</v>
+        <v>29.1</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>12297.04</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2004年10月</t>
+          <t>2004-02</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1224,16 +1459,21 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
-        <v>20681.63</v>
+        <v>2221.51</v>
       </c>
       <c r="G46" t="n">
-        <v>18</v>
+        <v>42.7</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>2221.51</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2004年11月</t>
+          <t>2004-03</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1241,16 +1481,21 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
-        <v>23725.51</v>
+        <v>4271.16</v>
       </c>
       <c r="G47" t="n">
-        <v>18.5</v>
+        <v>35.4</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>2049.65</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2004年12月</t>
+          <t>2004-04</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1258,16 +1503,21 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
-        <v>38231.64</v>
+        <v>6200.7</v>
       </c>
       <c r="G48" t="n">
-        <v>13.7</v>
+        <v>33.3</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1929.54</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2004年2月</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1275,16 +1525,21 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>2221.51</v>
+        <v>8310.09</v>
       </c>
       <c r="G49" t="n">
-        <v>42.7</v>
+        <v>30.9</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>2109.39</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2004年3月</t>
+          <t>2004-06</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -1292,16 +1547,21 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
-        <v>4271.16</v>
+        <v>11009.88</v>
       </c>
       <c r="G50" t="n">
-        <v>35.4</v>
+        <v>26.3</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>2699.789999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2004年4月</t>
+          <t>2004-07</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1309,16 +1569,21 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
-        <v>6200.7</v>
+        <v>13426.58</v>
       </c>
       <c r="G51" t="n">
-        <v>33.3</v>
+        <v>25.2</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>2416.700000000001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2004年5月</t>
+          <t>2004-08</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -1326,16 +1591,21 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
-        <v>8310.09</v>
+        <v>15595.97</v>
       </c>
       <c r="G52" t="n">
-        <v>30.9</v>
+        <v>23</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>2169.389999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2004年6月</t>
+          <t>2004-09</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -1343,16 +1613,21 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
-        <v>11009.88</v>
+        <v>18201.77</v>
       </c>
       <c r="G53" t="n">
-        <v>26.3</v>
+        <v>19.3</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>2605.800000000001</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2004年7月</t>
+          <t>2004-10</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1360,16 +1635,21 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
-        <v>13426.58</v>
+        <v>20681.63</v>
       </c>
       <c r="G54" t="n">
-        <v>25.2</v>
+        <v>18</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>2479.860000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2004年8月</t>
+          <t>2004-11</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -1377,16 +1657,21 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
-        <v>15595.97</v>
+        <v>23725.51</v>
       </c>
       <c r="G55" t="n">
-        <v>23</v>
+        <v>18.5</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>3043.879999999997</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2004年9月</t>
+          <t>2004-12</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -1394,85 +1679,87 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
-        <v>18201.77</v>
+        <v>38231.64</v>
       </c>
       <c r="G56" t="n">
-        <v>19.3</v>
+        <v>13.7</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>14506.13</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2005年10月</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>24235.38</v>
-      </c>
+          <t>2005-02</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="n">
-        <v>15116.81</v>
-      </c>
-      <c r="E57" t="n">
-        <v>22.2</v>
-      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
-        <v>39352.19</v>
+        <v>2596.45</v>
       </c>
       <c r="G57" t="n">
-        <v>22.2</v>
+        <v>15.4</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>2596.45</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2005年11月</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>26763.35</v>
-      </c>
+          <t>2005-03</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="n">
-        <v>16624.88</v>
-      </c>
-      <c r="E58" t="n">
-        <v>20.8</v>
-      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="n">
-        <v>43388.23</v>
+        <v>5172.67</v>
       </c>
       <c r="G58" t="n">
-        <v>20.8</v>
+        <v>20.3</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>2576.22</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2005年12月</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>31577.33</v>
-      </c>
+          <t>2005-04</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="n">
-        <v>24191.81</v>
-      </c>
-      <c r="E59" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="n">
-        <v>55769.14</v>
+        <v>7194.27</v>
       </c>
       <c r="G59" t="n">
-        <v>15.7</v>
+        <v>16</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>2021.6</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2005年2月</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -1480,16 +1767,21 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="n">
-        <v>2596.45</v>
+        <v>9484.83</v>
       </c>
       <c r="G60" t="n">
-        <v>15.4</v>
+        <v>13.9</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>2290.559999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2005年3月</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -1497,16 +1789,21 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="n">
-        <v>5172.67</v>
+        <v>12536.35</v>
       </c>
       <c r="G61" t="n">
-        <v>20.3</v>
+        <v>14</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>3051.52</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2005年4月</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -1514,4507 +1811,6159 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="n">
-        <v>7194.27</v>
+        <v>16526.92</v>
       </c>
       <c r="G62" t="n">
-        <v>16</v>
+        <v>22.9</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>3990.569999999998</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2005年5月</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
+          <t>2005-08</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>19440.77</v>
+      </c>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="D63" t="n">
+        <v>11761.7</v>
+      </c>
+      <c r="E63" t="n">
+        <v>24.3</v>
+      </c>
       <c r="F63" t="n">
-        <v>9484.83</v>
+        <v>31202.47</v>
       </c>
       <c r="G63" t="n">
-        <v>13.9</v>
+        <v>24.3</v>
+      </c>
+      <c r="H63" t="n">
+        <v>19440.77</v>
+      </c>
+      <c r="I63" t="n">
+        <v>11761.7</v>
+      </c>
+      <c r="J63" t="n">
+        <v>14675.55</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2005年6月</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
+          <t>2005-09</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>21473.56</v>
+      </c>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+      <c r="D64" t="n">
+        <v>13252.04</v>
+      </c>
+      <c r="E64" t="n">
+        <v>23</v>
+      </c>
       <c r="F64" t="n">
-        <v>12536.35</v>
+        <v>34725.6</v>
       </c>
       <c r="G64" t="n">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2032.790000000001</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1490.34</v>
+      </c>
+      <c r="J64" t="n">
+        <v>3523.129999999997</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2005年7月</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr"/>
+          <t>2005-10</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>24235.38</v>
+      </c>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+      <c r="D65" t="n">
+        <v>15116.81</v>
+      </c>
+      <c r="E65" t="n">
+        <v>22.2</v>
+      </c>
       <c r="F65" t="n">
-        <v>16526.92</v>
+        <v>39352.19</v>
       </c>
       <c r="G65" t="n">
-        <v>22.9</v>
+        <v>22.2</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2761.82</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1864.769999999999</v>
+      </c>
+      <c r="J65" t="n">
+        <v>4626.590000000004</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2005年8月</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>19440.77</v>
+        <v>26763.35</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>11761.7</v>
+        <v>16624.88</v>
       </c>
       <c r="E66" t="n">
-        <v>24.3</v>
+        <v>20.8</v>
       </c>
       <c r="F66" t="n">
-        <v>31202.47</v>
+        <v>43388.23</v>
       </c>
       <c r="G66" t="n">
-        <v>24.3</v>
+        <v>20.8</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2527.969999999998</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1508.070000000002</v>
+      </c>
+      <c r="J66" t="n">
+        <v>4036.040000000001</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2005年9月</t>
+          <t>2005-12</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>21473.56</v>
+        <v>31577.33</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>13252.04</v>
+        <v>24191.81</v>
       </c>
       <c r="E67" t="n">
-        <v>23</v>
+        <v>15.3</v>
       </c>
       <c r="F67" t="n">
-        <v>34725.6</v>
+        <v>55769.14</v>
       </c>
       <c r="G67" t="n">
-        <v>23</v>
+        <v>15.7</v>
+      </c>
+      <c r="H67" t="n">
+        <v>4813.980000000003</v>
+      </c>
+      <c r="I67" t="n">
+        <v>7566.93</v>
+      </c>
+      <c r="J67" t="n">
+        <v>12380.91</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>27630.41</v>
+        <v>3780.8</v>
       </c>
       <c r="C68" t="n">
-        <v>22.2</v>
+        <v>9</v>
       </c>
       <c r="D68" t="n">
-        <v>13150.26</v>
+        <v>1563.09</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.1</v>
+        <v>5</v>
       </c>
       <c r="F68" t="n">
-        <v>40780.67</v>
+        <v>5343.89</v>
       </c>
       <c r="G68" t="n">
-        <v>10.9</v>
+        <v>7.8</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3780.8</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1563.09</v>
+      </c>
+      <c r="J68" t="n">
+        <v>5343.89</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>31329.87</v>
+        <v>6472.09</v>
       </c>
       <c r="C69" t="n">
-        <v>24.3</v>
+        <v>13.1</v>
       </c>
       <c r="D69" t="n">
-        <v>14784.06</v>
+        <v>2986.62</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.4</v>
+        <v>4.5</v>
       </c>
       <c r="F69" t="n">
-        <v>46113.93</v>
+        <v>9458.709999999999</v>
       </c>
       <c r="G69" t="n">
-        <v>12</v>
+        <v>10.2</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2691.29</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1423.53</v>
+      </c>
+      <c r="J69" t="n">
+        <v>4114.819999999999</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>38337.9</v>
+        <v>9227.459999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>30.3</v>
+        <v>14</v>
       </c>
       <c r="D70" t="n">
-        <v>22290.24</v>
+        <v>4333.41</v>
       </c>
       <c r="E70" t="n">
-        <v>-9.4</v>
+        <v>0.6</v>
       </c>
       <c r="F70" t="n">
-        <v>60628.14</v>
+        <v>13560.87</v>
       </c>
       <c r="G70" t="n">
-        <v>12.2</v>
+        <v>9.4</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2755.369999999999</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1346.79</v>
+      </c>
+      <c r="J70" t="n">
+        <v>4102.160000000002</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3780.8</v>
+        <v>12413.65</v>
       </c>
       <c r="C71" t="n">
-        <v>9</v>
+        <v>22.6</v>
       </c>
       <c r="D71" t="n">
-        <v>1563.09</v>
+        <v>5723.32</v>
       </c>
       <c r="E71" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="F71" t="n">
-        <v>5343.89</v>
+        <v>18136.96</v>
       </c>
       <c r="G71" t="n">
-        <v>7.8</v>
+        <v>14.7</v>
+      </c>
+      <c r="H71" t="n">
+        <v>3186.190000000001</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1389.91</v>
+      </c>
+      <c r="J71" t="n">
+        <v>4576.089999999998</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>6472.09</v>
+        <v>15655.28</v>
       </c>
       <c r="C72" t="n">
-        <v>13.1</v>
+        <v>26.2</v>
       </c>
       <c r="D72" t="n">
-        <v>2986.62</v>
+        <v>7321.34</v>
       </c>
       <c r="E72" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>9458.709999999999</v>
+        <v>22976.62</v>
       </c>
       <c r="G72" t="n">
-        <v>10.2</v>
+        <v>16.5</v>
+      </c>
+      <c r="H72" t="n">
+        <v>3241.630000000001</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1598.02</v>
+      </c>
+      <c r="J72" t="n">
+        <v>4839.66</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>9227.459999999999</v>
+        <v>18531.9</v>
       </c>
       <c r="C73" t="n">
-        <v>14</v>
+        <v>23.4</v>
       </c>
       <c r="D73" t="n">
-        <v>4333.41</v>
+        <v>8776.08</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6</v>
+        <v>-5</v>
       </c>
       <c r="F73" t="n">
-        <v>13560.87</v>
+        <v>27307.98</v>
       </c>
       <c r="G73" t="n">
-        <v>9.4</v>
+        <v>12.6</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2876.620000000001</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1454.74</v>
+      </c>
+      <c r="J73" t="n">
+        <v>4331.360000000001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>12413.65</v>
+        <v>21358.76</v>
       </c>
       <c r="C74" t="n">
-        <v>22.6</v>
+        <v>20.2</v>
       </c>
       <c r="D74" t="n">
-        <v>5723.32</v>
+        <v>10025.83</v>
       </c>
       <c r="E74" t="n">
-        <v>0.7</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>18136.96</v>
+        <v>31384.59</v>
       </c>
       <c r="G74" t="n">
-        <v>14.7</v>
+        <v>8.9</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2826.859999999997</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1249.75</v>
+      </c>
+      <c r="J74" t="n">
+        <v>4076.610000000001</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>15655.28</v>
+        <v>24303.95</v>
       </c>
       <c r="C75" t="n">
-        <v>26.2</v>
+        <v>22.4</v>
       </c>
       <c r="D75" t="n">
-        <v>7321.34</v>
+        <v>11579.42</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>22976.62</v>
+        <v>35883.37</v>
       </c>
       <c r="G75" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2945.190000000002</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1553.59</v>
+      </c>
+      <c r="J75" t="n">
+        <v>4498.780000000002</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>18531.9</v>
+        <v>27630.41</v>
       </c>
       <c r="C76" t="n">
-        <v>23.4</v>
+        <v>22.2</v>
       </c>
       <c r="D76" t="n">
-        <v>8776.08</v>
+        <v>13150.26</v>
       </c>
       <c r="E76" t="n">
-        <v>-5</v>
+        <v>-7.1</v>
       </c>
       <c r="F76" t="n">
-        <v>27307.98</v>
+        <v>40780.67</v>
       </c>
       <c r="G76" t="n">
-        <v>12.6</v>
+        <v>10.9</v>
+      </c>
+      <c r="H76" t="n">
+        <v>3326.459999999999</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1570.84</v>
+      </c>
+      <c r="J76" t="n">
+        <v>4897.299999999996</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>21358.76</v>
+        <v>31329.87</v>
       </c>
       <c r="C77" t="n">
-        <v>20.2</v>
+        <v>24.3</v>
       </c>
       <c r="D77" t="n">
-        <v>10025.83</v>
+        <v>14784.06</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.199999999999999</v>
+        <v>-7.4</v>
       </c>
       <c r="F77" t="n">
-        <v>31384.59</v>
+        <v>46113.93</v>
       </c>
       <c r="G77" t="n">
-        <v>8.9</v>
+        <v>12</v>
+      </c>
+      <c r="H77" t="n">
+        <v>3699.459999999999</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1633.799999999999</v>
+      </c>
+      <c r="J77" t="n">
+        <v>5333.260000000002</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>24303.95</v>
+        <v>38337.9</v>
       </c>
       <c r="C78" t="n">
-        <v>22.4</v>
+        <v>30.3</v>
       </c>
       <c r="D78" t="n">
-        <v>11579.42</v>
+        <v>22290.24</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.199999999999999</v>
+        <v>-9.4</v>
       </c>
       <c r="F78" t="n">
-        <v>35883.37</v>
+        <v>60628.14</v>
       </c>
       <c r="G78" t="n">
-        <v>10.5</v>
+        <v>12.2</v>
+      </c>
+      <c r="H78" t="n">
+        <v>7008.030000000002</v>
+      </c>
+      <c r="I78" t="n">
+        <v>7506.180000000002</v>
+      </c>
+      <c r="J78" t="n">
+        <v>14514.21</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>38547.36</v>
+        <v>3996.67</v>
       </c>
       <c r="C79" t="n">
-        <v>39.5</v>
+        <v>5.7</v>
       </c>
       <c r="D79" t="n">
-        <v>15017.6</v>
+        <v>1374.81</v>
       </c>
       <c r="E79" t="n">
-        <v>14.2</v>
+        <v>-12</v>
       </c>
       <c r="F79" t="n">
-        <v>53564.96</v>
+        <v>5371.47</v>
       </c>
       <c r="G79" t="n">
-        <v>31.3</v>
+        <v>0.5</v>
+      </c>
+      <c r="H79" t="n">
+        <v>3996.67</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1374.81</v>
+      </c>
+      <c r="J79" t="n">
+        <v>5371.47</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>43140.97</v>
+        <v>7550.55</v>
       </c>
       <c r="C80" t="n">
-        <v>37.7</v>
+        <v>17.6</v>
       </c>
       <c r="D80" t="n">
-        <v>17015.92</v>
+        <v>3050.23</v>
       </c>
       <c r="E80" t="n">
-        <v>15.1</v>
+        <v>2.5</v>
       </c>
       <c r="F80" t="n">
-        <v>60156.89</v>
+        <v>10600.77</v>
       </c>
       <c r="G80" t="n">
-        <v>30.5</v>
+        <v>12.8</v>
+      </c>
+      <c r="H80" t="n">
+        <v>3553.88</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1675.42</v>
+      </c>
+      <c r="J80" t="n">
+        <v>5229.3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>51793.24</v>
+        <v>11203.48</v>
       </c>
       <c r="C81" t="n">
-        <v>34.5</v>
+        <v>21.5</v>
       </c>
       <c r="D81" t="n">
-        <v>24399.46</v>
+        <v>4561.68</v>
       </c>
       <c r="E81" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="F81" t="n">
-        <v>76192.7</v>
+        <v>15765.16</v>
       </c>
       <c r="G81" t="n">
-        <v>23.2</v>
+        <v>16.4</v>
+      </c>
+      <c r="H81" t="n">
+        <v>3652.929999999999</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1511.45</v>
+      </c>
+      <c r="J81" t="n">
+        <v>5164.389999999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>3996.67</v>
+        <v>15046.12</v>
       </c>
       <c r="C82" t="n">
-        <v>5.7</v>
+        <v>21.2</v>
       </c>
       <c r="D82" t="n">
-        <v>1374.81</v>
+        <v>6101.87</v>
       </c>
       <c r="E82" t="n">
-        <v>-12</v>
+        <v>6.6</v>
       </c>
       <c r="F82" t="n">
-        <v>5371.47</v>
+        <v>21148</v>
       </c>
       <c r="G82" t="n">
-        <v>0.5</v>
+        <v>16.6</v>
+      </c>
+      <c r="H82" t="n">
+        <v>3842.640000000001</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1540.19</v>
+      </c>
+      <c r="J82" t="n">
+        <v>5382.84</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7550.55</v>
+        <v>19925.36</v>
       </c>
       <c r="C83" t="n">
-        <v>17.6</v>
+        <v>27.3</v>
       </c>
       <c r="D83" t="n">
-        <v>3050.23</v>
+        <v>7978.79</v>
       </c>
       <c r="E83" t="n">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="F83" t="n">
-        <v>10600.77</v>
+        <v>27904.15</v>
       </c>
       <c r="G83" t="n">
-        <v>12.8</v>
+        <v>21.5</v>
+      </c>
+      <c r="H83" t="n">
+        <v>4879.24</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1876.92</v>
+      </c>
+      <c r="J83" t="n">
+        <v>6756.150000000001</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>11203.48</v>
+        <v>24494.44</v>
       </c>
       <c r="C84" t="n">
-        <v>21.5</v>
+        <v>32.2</v>
       </c>
       <c r="D84" t="n">
-        <v>4561.68</v>
+        <v>9642.799999999999</v>
       </c>
       <c r="E84" t="n">
-        <v>5.3</v>
+        <v>9.9</v>
       </c>
       <c r="F84" t="n">
-        <v>15765.16</v>
+        <v>34137.24</v>
       </c>
       <c r="G84" t="n">
-        <v>16.4</v>
+        <v>25.1</v>
+      </c>
+      <c r="H84" t="n">
+        <v>4569.079999999998</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1664.009999999999</v>
+      </c>
+      <c r="J84" t="n">
+        <v>6233.089999999997</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>15046.12</v>
+        <v>29280.92</v>
       </c>
       <c r="C85" t="n">
-        <v>21.2</v>
+        <v>37.1</v>
       </c>
       <c r="D85" t="n">
-        <v>6101.87</v>
+        <v>11291.89</v>
       </c>
       <c r="E85" t="n">
-        <v>6.6</v>
+        <v>12.7</v>
       </c>
       <c r="F85" t="n">
-        <v>21148</v>
+        <v>40572.81</v>
       </c>
       <c r="G85" t="n">
-        <v>16.6</v>
+        <v>29.3</v>
+      </c>
+      <c r="H85" t="n">
+        <v>4786.48</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1649.09</v>
+      </c>
+      <c r="J85" t="n">
+        <v>6435.57</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>19925.36</v>
+        <v>34147.07</v>
       </c>
       <c r="C86" t="n">
-        <v>27.3</v>
+        <v>40.6</v>
       </c>
       <c r="D86" t="n">
-        <v>7978.79</v>
+        <v>13222.65</v>
       </c>
       <c r="E86" t="n">
-        <v>9</v>
+        <v>14.2</v>
       </c>
       <c r="F86" t="n">
-        <v>27904.15</v>
+        <v>47369.71</v>
       </c>
       <c r="G86" t="n">
-        <v>21.5</v>
+        <v>32.1</v>
+      </c>
+      <c r="H86" t="n">
+        <v>4866.150000000001</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1930.76</v>
+      </c>
+      <c r="J86" t="n">
+        <v>6796.900000000001</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>24494.44</v>
+        <v>38547.36</v>
       </c>
       <c r="C87" t="n">
-        <v>32.2</v>
+        <v>39.5</v>
       </c>
       <c r="D87" t="n">
-        <v>9642.799999999999</v>
+        <v>15017.6</v>
       </c>
       <c r="E87" t="n">
-        <v>9.9</v>
+        <v>14.2</v>
       </c>
       <c r="F87" t="n">
-        <v>34137.24</v>
+        <v>53564.96</v>
       </c>
       <c r="G87" t="n">
-        <v>25.1</v>
+        <v>31.3</v>
+      </c>
+      <c r="H87" t="n">
+        <v>4400.290000000001</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1794.950000000001</v>
+      </c>
+      <c r="J87" t="n">
+        <v>6195.25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>29280.92</v>
+        <v>43140.97</v>
       </c>
       <c r="C88" t="n">
-        <v>37.1</v>
+        <v>37.7</v>
       </c>
       <c r="D88" t="n">
-        <v>11291.89</v>
+        <v>17015.92</v>
       </c>
       <c r="E88" t="n">
-        <v>12.7</v>
+        <v>15.1</v>
       </c>
       <c r="F88" t="n">
-        <v>40572.81</v>
+        <v>60156.89</v>
       </c>
       <c r="G88" t="n">
-        <v>29.3</v>
+        <v>30.5</v>
+      </c>
+      <c r="H88" t="n">
+        <v>4593.610000000001</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1998.319999999998</v>
+      </c>
+      <c r="J88" t="n">
+        <v>6591.93</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>34147.07</v>
+        <v>51793.24</v>
       </c>
       <c r="C89" t="n">
-        <v>40.6</v>
+        <v>34.5</v>
       </c>
       <c r="D89" t="n">
-        <v>13222.65</v>
+        <v>24399.46</v>
       </c>
       <c r="E89" t="n">
-        <v>14.2</v>
+        <v>4.5</v>
       </c>
       <c r="F89" t="n">
-        <v>47369.71</v>
+        <v>76192.7</v>
       </c>
       <c r="G89" t="n">
-        <v>32.1</v>
+        <v>23.2</v>
+      </c>
+      <c r="H89" t="n">
+        <v>8652.269999999997</v>
+      </c>
+      <c r="I89" t="n">
+        <v>7383.540000000001</v>
+      </c>
+      <c r="J89" t="n">
+        <v>16035.81</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>32435.41</v>
+        <v>3860.85</v>
       </c>
       <c r="C90" t="n">
-        <v>-15.9</v>
+        <v>-3.4</v>
       </c>
       <c r="D90" t="n">
-        <v>12287.56</v>
+        <v>1283.3</v>
       </c>
       <c r="E90" t="n">
-        <v>-18.2</v>
+        <v>-6.7</v>
       </c>
       <c r="F90" t="n">
-        <v>44722.96</v>
+        <v>5144.15</v>
       </c>
       <c r="G90" t="n">
-        <v>-16.5</v>
+        <v>-4.2</v>
+      </c>
+      <c r="H90" t="n">
+        <v>3860.85</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1283.3</v>
+      </c>
+      <c r="J90" t="n">
+        <v>5144.15</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>35431.42</v>
+        <v>7607.03</v>
       </c>
       <c r="C91" t="n">
-        <v>-17.9</v>
+        <v>0.7</v>
       </c>
       <c r="D91" t="n">
-        <v>13716.96</v>
+        <v>2784.86</v>
       </c>
       <c r="E91" t="n">
-        <v>-19.4</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="F91" t="n">
-        <v>49148.38</v>
+        <v>10449.56</v>
       </c>
       <c r="G91" t="n">
-        <v>-18.3</v>
+        <v>-2</v>
+      </c>
+      <c r="H91" t="n">
+        <v>3746.18</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1501.56</v>
+      </c>
+      <c r="J91" t="n">
+        <v>5305.41</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>42459.65</v>
+        <v>10987.05</v>
       </c>
       <c r="C92" t="n">
-        <v>-18.7</v>
+        <v>-1.9</v>
       </c>
       <c r="D92" t="n">
-        <v>19629.29</v>
+        <v>4007.1</v>
       </c>
       <c r="E92" t="n">
-        <v>-21.9</v>
+        <v>-12.2</v>
       </c>
       <c r="F92" t="n">
-        <v>62088.94</v>
+        <v>14994.15</v>
       </c>
       <c r="G92" t="n">
-        <v>-19.7</v>
+        <v>-4.9</v>
+      </c>
+      <c r="H92" t="n">
+        <v>3380.02</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1222.24</v>
+      </c>
+      <c r="J92" t="n">
+        <v>4544.59</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>3860.85</v>
+        <v>14460.45</v>
       </c>
       <c r="C93" t="n">
-        <v>-3.4</v>
+        <v>-3.9</v>
       </c>
       <c r="D93" t="n">
-        <v>1283.3</v>
+        <v>5172.95</v>
       </c>
       <c r="E93" t="n">
-        <v>-6.7</v>
+        <v>-15.2</v>
       </c>
       <c r="F93" t="n">
-        <v>5144.15</v>
+        <v>19633.4</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.2</v>
+        <v>-7.2</v>
+      </c>
+      <c r="H93" t="n">
+        <v>3473.400000000001</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1165.85</v>
+      </c>
+      <c r="J93" t="n">
+        <v>4639.250000000002</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>7607.03</v>
+        <v>19026.79</v>
       </c>
       <c r="C94" t="n">
-        <v>0.7</v>
+        <v>-4.5</v>
       </c>
       <c r="D94" t="n">
-        <v>2784.86</v>
+        <v>6865.84</v>
       </c>
       <c r="E94" t="n">
-        <v>-8.699999999999999</v>
+        <v>-13.9</v>
       </c>
       <c r="F94" t="n">
-        <v>10449.56</v>
+        <v>25892.63</v>
       </c>
       <c r="G94" t="n">
-        <v>-2</v>
+        <v>-7.2</v>
+      </c>
+      <c r="H94" t="n">
+        <v>4566.34</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1692.89</v>
+      </c>
+      <c r="J94" t="n">
+        <v>6259.23</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>10987.05</v>
+        <v>22454.18</v>
       </c>
       <c r="C95" t="n">
-        <v>-1.9</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>4007.1</v>
+        <v>7999.78</v>
       </c>
       <c r="E95" t="n">
-        <v>-12.2</v>
+        <v>-17</v>
       </c>
       <c r="F95" t="n">
-        <v>14994.15</v>
+        <v>30453.96</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.9</v>
+        <v>-10.8</v>
+      </c>
+      <c r="H95" t="n">
+        <v>3427.389999999999</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1133.94</v>
+      </c>
+      <c r="J95" t="n">
+        <v>4561.329999999998</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>14460.45</v>
+        <v>25488.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-3.9</v>
+        <v>-13</v>
       </c>
       <c r="D96" t="n">
-        <v>5172.95</v>
+        <v>9103.48</v>
       </c>
       <c r="E96" t="n">
-        <v>-15.2</v>
+        <v>-19.4</v>
       </c>
       <c r="F96" t="n">
-        <v>19633.4</v>
+        <v>34592.28</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.2</v>
+        <v>-14.7</v>
+      </c>
+      <c r="H96" t="n">
+        <v>3034.619999999999</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1103.7</v>
+      </c>
+      <c r="J96" t="n">
+        <v>4138.32</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>19026.79</v>
+        <v>29406.84</v>
       </c>
       <c r="C97" t="n">
-        <v>-4.5</v>
+        <v>-13.9</v>
       </c>
       <c r="D97" t="n">
-        <v>6865.84</v>
+        <v>10913.93</v>
       </c>
       <c r="E97" t="n">
-        <v>-13.9</v>
+        <v>-17.5</v>
       </c>
       <c r="F97" t="n">
-        <v>25892.63</v>
+        <v>40320.76</v>
       </c>
       <c r="G97" t="n">
-        <v>-7.2</v>
+        <v>-14.9</v>
+      </c>
+      <c r="H97" t="n">
+        <v>3918.040000000001</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1810.450000000001</v>
+      </c>
+      <c r="J97" t="n">
+        <v>5728.480000000003</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>22454.18</v>
+        <v>32435.41</v>
       </c>
       <c r="C98" t="n">
-        <v>-8.300000000000001</v>
+        <v>-15.9</v>
       </c>
       <c r="D98" t="n">
-        <v>7999.78</v>
+        <v>12287.56</v>
       </c>
       <c r="E98" t="n">
-        <v>-17</v>
+        <v>-18.2</v>
       </c>
       <c r="F98" t="n">
-        <v>30453.96</v>
+        <v>44722.96</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.8</v>
+        <v>-16.5</v>
+      </c>
+      <c r="H98" t="n">
+        <v>3028.57</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1373.629999999999</v>
+      </c>
+      <c r="J98" t="n">
+        <v>4402.199999999997</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>25488.8</v>
+        <v>35431.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-13</v>
+        <v>-17.9</v>
       </c>
       <c r="D99" t="n">
-        <v>9103.48</v>
+        <v>13716.96</v>
       </c>
       <c r="E99" t="n">
         <v>-19.4</v>
       </c>
       <c r="F99" t="n">
-        <v>34592.28</v>
+        <v>49148.38</v>
       </c>
       <c r="G99" t="n">
-        <v>-14.7</v>
+        <v>-18.3</v>
+      </c>
+      <c r="H99" t="n">
+        <v>2996.009999999998</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1429.4</v>
+      </c>
+      <c r="J99" t="n">
+        <v>4425.419999999998</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>29406.84</v>
+        <v>42459.65</v>
       </c>
       <c r="C100" t="n">
-        <v>-13.9</v>
+        <v>-18.7</v>
       </c>
       <c r="D100" t="n">
-        <v>10913.93</v>
+        <v>19629.29</v>
       </c>
       <c r="E100" t="n">
-        <v>-17.5</v>
+        <v>-21.9</v>
       </c>
       <c r="F100" t="n">
-        <v>40320.76</v>
+        <v>62088.94</v>
       </c>
       <c r="G100" t="n">
-        <v>-14.9</v>
+        <v>-19.7</v>
+      </c>
+      <c r="H100" t="n">
+        <v>7028.230000000003</v>
+      </c>
+      <c r="I100" t="n">
+        <v>5912.330000000002</v>
+      </c>
+      <c r="J100" t="n">
+        <v>12940.56</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>49019.23</v>
+        <v>3854.66</v>
       </c>
       <c r="C101" t="n">
-        <v>51.1</v>
+        <v>-0.2</v>
       </c>
       <c r="D101" t="n">
-        <v>17349.49</v>
+        <v>1276.57</v>
       </c>
       <c r="E101" t="n">
-        <v>41.2</v>
+        <v>-0.5</v>
       </c>
       <c r="F101" t="n">
-        <v>66368.73</v>
+        <v>5131.23</v>
       </c>
       <c r="G101" t="n">
-        <v>48.4</v>
+        <v>-0.3</v>
+      </c>
+      <c r="H101" t="n">
+        <v>3854.66</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1276.57</v>
+      </c>
+      <c r="J101" t="n">
+        <v>5131.23</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>55074.14</v>
+        <v>8189.33</v>
       </c>
       <c r="C102" t="n">
-        <v>55.4</v>
+        <v>6.9</v>
       </c>
       <c r="D102" t="n">
-        <v>20129.01</v>
+        <v>3119.41</v>
       </c>
       <c r="E102" t="n">
-        <v>46.7</v>
+        <v>11.8</v>
       </c>
       <c r="F102" t="n">
-        <v>75203.14999999999</v>
+        <v>11308.74</v>
       </c>
       <c r="G102" t="n">
-        <v>53</v>
+        <v>8.199999999999999</v>
+      </c>
+      <c r="H102" t="n">
+        <v>4334.67</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1842.84</v>
+      </c>
+      <c r="J102" t="n">
+        <v>6177.51</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>66875.66</v>
+        <v>12761.56</v>
       </c>
       <c r="C103" t="n">
-        <v>54.3</v>
+        <v>16.2</v>
       </c>
       <c r="D103" t="n">
-        <v>26837.37</v>
+        <v>4863.9</v>
       </c>
       <c r="E103" t="n">
-        <v>18.6</v>
+        <v>21.3</v>
       </c>
       <c r="F103" t="n">
-        <v>93713.03999999999</v>
+        <v>17625.45</v>
       </c>
       <c r="G103" t="n">
-        <v>42.1</v>
+        <v>17.5</v>
+      </c>
+      <c r="H103" t="n">
+        <v>4572.23</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1744.49</v>
+      </c>
+      <c r="J103" t="n">
+        <v>6316.710000000001</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>3854.66</v>
+        <v>17927.65</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.2</v>
+        <v>24</v>
       </c>
       <c r="D104" t="n">
-        <v>1276.57</v>
+        <v>6716.79</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.5</v>
+        <v>29.8</v>
       </c>
       <c r="F104" t="n">
-        <v>5131.23</v>
+        <v>24644.44</v>
       </c>
       <c r="G104" t="n">
-        <v>-0.3</v>
+        <v>25.5</v>
+      </c>
+      <c r="H104" t="n">
+        <v>5166.090000000002</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1852.89</v>
+      </c>
+      <c r="J104" t="n">
+        <v>7018.989999999998</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>8189.33</v>
+        <v>24832.39</v>
       </c>
       <c r="C105" t="n">
-        <v>6.9</v>
+        <v>30.5</v>
       </c>
       <c r="D105" t="n">
-        <v>3119.41</v>
+        <v>9276.200000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>11.8</v>
+        <v>35.1</v>
       </c>
       <c r="F105" t="n">
-        <v>11308.74</v>
+        <v>34108.59</v>
       </c>
       <c r="G105" t="n">
-        <v>8.199999999999999</v>
+        <v>31.7</v>
+      </c>
+      <c r="H105" t="n">
+        <v>6904.739999999998</v>
+      </c>
+      <c r="I105" t="n">
+        <v>2559.410000000001</v>
+      </c>
+      <c r="J105" t="n">
+        <v>9464.149999999998</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>12761.56</v>
+        <v>30645.54</v>
       </c>
       <c r="C106" t="n">
-        <v>16.2</v>
+        <v>36.5</v>
       </c>
       <c r="D106" t="n">
-        <v>4863.9</v>
+        <v>11109.44</v>
       </c>
       <c r="E106" t="n">
-        <v>21.3</v>
+        <v>38.9</v>
       </c>
       <c r="F106" t="n">
-        <v>17625.45</v>
+        <v>41754.98</v>
       </c>
       <c r="G106" t="n">
-        <v>17.5</v>
+        <v>37.1</v>
+      </c>
+      <c r="H106" t="n">
+        <v>5813.150000000001</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1833.24</v>
+      </c>
+      <c r="J106" t="n">
+        <v>7646.390000000007</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>17927.65</v>
+        <v>36373.65</v>
       </c>
       <c r="C107" t="n">
-        <v>24</v>
+        <v>42.7</v>
       </c>
       <c r="D107" t="n">
-        <v>6716.79</v>
+        <v>13042.38</v>
       </c>
       <c r="E107" t="n">
-        <v>29.8</v>
+        <v>43.3</v>
       </c>
       <c r="F107" t="n">
-        <v>24644.44</v>
+        <v>49416.04</v>
       </c>
       <c r="G107" t="n">
-        <v>25.5</v>
+        <v>42.9</v>
+      </c>
+      <c r="H107" t="n">
+        <v>5728.110000000001</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1932.939999999999</v>
+      </c>
+      <c r="J107" t="n">
+        <v>7661.059999999998</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>24832.39</v>
+        <v>43028.43</v>
       </c>
       <c r="C108" t="n">
-        <v>30.5</v>
+        <v>46.3</v>
       </c>
       <c r="D108" t="n">
-        <v>9276.200000000001</v>
+        <v>15342.58</v>
       </c>
       <c r="E108" t="n">
-        <v>35.1</v>
+        <v>40.6</v>
       </c>
       <c r="F108" t="n">
-        <v>34108.59</v>
+        <v>58371.02</v>
       </c>
       <c r="G108" t="n">
-        <v>31.7</v>
+        <v>44.8</v>
+      </c>
+      <c r="H108" t="n">
+        <v>6654.779999999999</v>
+      </c>
+      <c r="I108" t="n">
+        <v>2300.200000000001</v>
+      </c>
+      <c r="J108" t="n">
+        <v>8954.979999999996</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>30645.54</v>
+        <v>49019.23</v>
       </c>
       <c r="C109" t="n">
-        <v>36.5</v>
+        <v>51.1</v>
       </c>
       <c r="D109" t="n">
-        <v>11109.44</v>
+        <v>17349.49</v>
       </c>
       <c r="E109" t="n">
-        <v>38.9</v>
+        <v>41.2</v>
       </c>
       <c r="F109" t="n">
-        <v>41754.98</v>
+        <v>66368.73</v>
       </c>
       <c r="G109" t="n">
-        <v>37.1</v>
+        <v>48.4</v>
+      </c>
+      <c r="H109" t="n">
+        <v>5990.800000000003</v>
+      </c>
+      <c r="I109" t="n">
+        <v>2006.910000000002</v>
+      </c>
+      <c r="J109" t="n">
+        <v>7997.709999999999</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>36373.65</v>
+        <v>55074.14</v>
       </c>
       <c r="C110" t="n">
-        <v>42.7</v>
+        <v>55.4</v>
       </c>
       <c r="D110" t="n">
-        <v>13042.38</v>
+        <v>20129.01</v>
       </c>
       <c r="E110" t="n">
-        <v>43.3</v>
+        <v>46.7</v>
       </c>
       <c r="F110" t="n">
-        <v>49416.04</v>
+        <v>75203.14999999999</v>
       </c>
       <c r="G110" t="n">
-        <v>42.9</v>
+        <v>53</v>
+      </c>
+      <c r="H110" t="n">
+        <v>6054.909999999996</v>
+      </c>
+      <c r="I110" t="n">
+        <v>2779.519999999997</v>
+      </c>
+      <c r="J110" t="n">
+        <v>8834.419999999998</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>43028.43</v>
+        <v>66875.66</v>
       </c>
       <c r="C111" t="n">
-        <v>46.3</v>
+        <v>54.3</v>
       </c>
       <c r="D111" t="n">
-        <v>15342.58</v>
+        <v>26837.37</v>
       </c>
       <c r="E111" t="n">
-        <v>40.6</v>
+        <v>18.6</v>
       </c>
       <c r="F111" t="n">
-        <v>58371.02</v>
+        <v>93713.03999999999</v>
       </c>
       <c r="G111" t="n">
-        <v>44.8</v>
+        <v>42.1</v>
+      </c>
+      <c r="H111" t="n">
+        <v>11801.52</v>
+      </c>
+      <c r="I111" t="n">
+        <v>6708.360000000001</v>
+      </c>
+      <c r="J111" t="n">
+        <v>18509.89</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>55974.3572</v>
+        <v>5598.59</v>
       </c>
       <c r="C112" t="n">
-        <v>14.2</v>
+        <v>44.4</v>
       </c>
       <c r="D112" t="n">
-        <v>16454.1971</v>
+        <v>1556.58</v>
       </c>
       <c r="E112" t="n">
-        <v>-5.2</v>
+        <v>19.6</v>
       </c>
       <c r="F112" t="n">
-        <v>72428.5543</v>
+        <v>7155.18</v>
       </c>
       <c r="G112" t="n">
-        <v>9.1</v>
+        <v>38.2</v>
+      </c>
+      <c r="H112" t="n">
+        <v>5598.59</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1556.58</v>
+      </c>
+      <c r="J112" t="n">
+        <v>7155.18</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>63613.5466</v>
+        <v>11802.38</v>
       </c>
       <c r="C113" t="n">
-        <v>15.5</v>
+        <v>44.1</v>
       </c>
       <c r="D113" t="n">
-        <v>18927.7269</v>
+        <v>3558.54</v>
       </c>
       <c r="E113" t="n">
-        <v>-6</v>
+        <v>14.1</v>
       </c>
       <c r="F113" t="n">
-        <v>82541.2735</v>
+        <v>15360.92</v>
       </c>
       <c r="G113" t="n">
-        <v>9.800000000000001</v>
+        <v>35.8</v>
+      </c>
+      <c r="H113" t="n">
+        <v>6203.789999999999</v>
+      </c>
+      <c r="I113" t="n">
+        <v>2001.96</v>
+      </c>
+      <c r="J113" t="n">
+        <v>8205.74</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>78174.55070000001</v>
+        <v>17925.68</v>
       </c>
       <c r="C114" t="n">
-        <v>16.3</v>
+        <v>40.5</v>
       </c>
       <c r="D114" t="n">
-        <v>26174.5584</v>
+        <v>5486.48</v>
       </c>
       <c r="E114" t="n">
-        <v>-5</v>
+        <v>12.8</v>
       </c>
       <c r="F114" t="n">
-        <v>104349.1091</v>
+        <v>23412.16</v>
       </c>
       <c r="G114" t="n">
-        <v>10.1</v>
+        <v>32.8</v>
+      </c>
+      <c r="H114" t="n">
+        <v>6123.300000000001</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1927.94</v>
+      </c>
+      <c r="J114" t="n">
+        <v>8051.24</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>5598.59</v>
+        <v>23173.09</v>
       </c>
       <c r="C115" t="n">
-        <v>44.4</v>
+        <v>29.3</v>
       </c>
       <c r="D115" t="n">
-        <v>1556.58</v>
+        <v>7016.35</v>
       </c>
       <c r="E115" t="n">
-        <v>19.6</v>
+        <v>4.5</v>
       </c>
       <c r="F115" t="n">
-        <v>7155.18</v>
+        <v>30189.43</v>
       </c>
       <c r="G115" t="n">
-        <v>38.2</v>
+        <v>22.5</v>
+      </c>
+      <c r="H115" t="n">
+        <v>5247.41</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1529.870000000001</v>
+      </c>
+      <c r="J115" t="n">
+        <v>6777.27</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>11802.38</v>
+        <v>30061.14</v>
       </c>
       <c r="C116" t="n">
-        <v>44.1</v>
+        <v>21.1</v>
       </c>
       <c r="D116" t="n">
-        <v>3558.54</v>
+        <v>9291.389999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>14.1</v>
+        <v>0.2</v>
       </c>
       <c r="F116" t="n">
-        <v>15360.92</v>
+        <v>39352.53</v>
       </c>
       <c r="G116" t="n">
-        <v>35.8</v>
+        <v>15.4</v>
+      </c>
+      <c r="H116" t="n">
+        <v>6888.049999999999</v>
+      </c>
+      <c r="I116" t="n">
+        <v>2275.039999999999</v>
+      </c>
+      <c r="J116" t="n">
+        <v>9163.099999999999</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>17925.68</v>
+        <v>35089.9</v>
       </c>
       <c r="C117" t="n">
-        <v>40.5</v>
+        <v>14.5</v>
       </c>
       <c r="D117" t="n">
-        <v>5486.48</v>
+        <v>10728.71</v>
       </c>
       <c r="E117" t="n">
-        <v>12.8</v>
+        <v>-3.4</v>
       </c>
       <c r="F117" t="n">
-        <v>23412.16</v>
+        <v>45818.61</v>
       </c>
       <c r="G117" t="n">
-        <v>32.8</v>
+        <v>9.699999999999999</v>
+      </c>
+      <c r="H117" t="n">
+        <v>5028.760000000002</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1437.32</v>
+      </c>
+      <c r="J117" t="n">
+        <v>6466.080000000002</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>23173.09</v>
+        <v>40435.23</v>
       </c>
       <c r="C118" t="n">
-        <v>29.3</v>
+        <v>11.2</v>
       </c>
       <c r="D118" t="n">
-        <v>7016.35</v>
+        <v>12269.24</v>
       </c>
       <c r="E118" t="n">
-        <v>4.5</v>
+        <v>-5.9</v>
       </c>
       <c r="F118" t="n">
-        <v>30189.43</v>
+        <v>52704.47</v>
       </c>
       <c r="G118" t="n">
-        <v>22.5</v>
+        <v>6.7</v>
+      </c>
+      <c r="H118" t="n">
+        <v>5345.330000000002</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1540.530000000001</v>
+      </c>
+      <c r="J118" t="n">
+        <v>6885.860000000001</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>30061.14</v>
+        <v>48604.53</v>
       </c>
       <c r="C119" t="n">
-        <v>21.1</v>
+        <v>13</v>
       </c>
       <c r="D119" t="n">
-        <v>9291.389999999999</v>
+        <v>14545.7</v>
       </c>
       <c r="E119" t="n">
-        <v>0.2</v>
+        <v>-5.2</v>
       </c>
       <c r="F119" t="n">
-        <v>39352.53</v>
+        <v>63150.23</v>
       </c>
       <c r="G119" t="n">
-        <v>15.4</v>
+        <v>8.199999999999999</v>
+      </c>
+      <c r="H119" t="n">
+        <v>8169.299999999996</v>
+      </c>
+      <c r="I119" t="n">
+        <v>2276.460000000001</v>
+      </c>
+      <c r="J119" t="n">
+        <v>10445.76</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>35089.9</v>
+        <v>55974.3572</v>
       </c>
       <c r="C120" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="D120" t="n">
-        <v>10728.71</v>
+        <v>16454.1971</v>
       </c>
       <c r="E120" t="n">
-        <v>-3.4</v>
+        <v>-5.2</v>
       </c>
       <c r="F120" t="n">
-        <v>45818.61</v>
+        <v>72428.5543</v>
       </c>
       <c r="G120" t="n">
-        <v>9.699999999999999</v>
+        <v>9.1</v>
+      </c>
+      <c r="H120" t="n">
+        <v>7369.8272</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1908.497100000001</v>
+      </c>
+      <c r="J120" t="n">
+        <v>9278.3243</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>40435.23</v>
+        <v>63613.5466</v>
       </c>
       <c r="C121" t="n">
-        <v>11.2</v>
+        <v>15.5</v>
       </c>
       <c r="D121" t="n">
-        <v>12269.24</v>
+        <v>18927.7269</v>
       </c>
       <c r="E121" t="n">
-        <v>-5.9</v>
+        <v>-6</v>
       </c>
       <c r="F121" t="n">
-        <v>52704.47</v>
+        <v>82541.2735</v>
       </c>
       <c r="G121" t="n">
-        <v>6.7</v>
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H121" t="n">
+        <v>7639.189400000003</v>
+      </c>
+      <c r="I121" t="n">
+        <v>2473.5298</v>
+      </c>
+      <c r="J121" t="n">
+        <v>10112.71919999999</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>48604.53</v>
+        <v>78174.55070000001</v>
       </c>
       <c r="C122" t="n">
-        <v>13</v>
+        <v>16.3</v>
       </c>
       <c r="D122" t="n">
-        <v>14545.7</v>
+        <v>26174.5584</v>
       </c>
       <c r="E122" t="n">
-        <v>-5.2</v>
+        <v>-5</v>
       </c>
       <c r="F122" t="n">
-        <v>63150.23</v>
+        <v>104349.1091</v>
       </c>
       <c r="G122" t="n">
-        <v>8.199999999999999</v>
+        <v>10.1</v>
+      </c>
+      <c r="H122" t="n">
+        <v>14561.00410000001</v>
+      </c>
+      <c r="I122" t="n">
+        <v>7246.8315</v>
+      </c>
+      <c r="J122" t="n">
+        <v>21807.83560000001</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>62566.6736</v>
+        <v>6559.8382</v>
       </c>
       <c r="C123" t="n">
-        <v>11.8</v>
+        <v>17.2</v>
       </c>
       <c r="D123" t="n">
-        <v>17086.4497</v>
+        <v>1583.1098</v>
       </c>
       <c r="E123" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="F123" t="n">
-        <v>79653.12330000001</v>
+        <v>8142.948</v>
       </c>
       <c r="G123" t="n">
-        <v>10</v>
+        <v>13.8</v>
+      </c>
+      <c r="H123" t="n">
+        <v>6559.8382</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1583.1098</v>
+      </c>
+      <c r="J123" t="n">
+        <v>8142.948</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>69875.9932</v>
+        <v>13962.0735</v>
       </c>
       <c r="C124" t="n">
-        <v>9.800000000000001</v>
+        <v>18.3</v>
       </c>
       <c r="D124" t="n">
-        <v>19717.882</v>
+        <v>3680.7148</v>
       </c>
       <c r="E124" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="F124" t="n">
-        <v>89593.87519999999</v>
+        <v>17642.7883</v>
       </c>
       <c r="G124" t="n">
-        <v>8.5</v>
+        <v>14.9</v>
+      </c>
+      <c r="H124" t="n">
+        <v>7402.2353</v>
+      </c>
+      <c r="I124" t="n">
+        <v>2097.605</v>
+      </c>
+      <c r="J124" t="n">
+        <v>9499.8403</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>83200.3851</v>
+        <v>19572.8054</v>
       </c>
       <c r="C125" t="n">
-        <v>6.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>26745.174</v>
+        <v>5325.1119</v>
       </c>
       <c r="E125" t="n">
-        <v>0.3</v>
+        <v>-2.9</v>
       </c>
       <c r="F125" t="n">
-        <v>109945.5591</v>
+        <v>24897.9173</v>
       </c>
       <c r="G125" t="n">
-        <v>4.9</v>
+        <v>6.3</v>
+      </c>
+      <c r="H125" t="n">
+        <v>5610.731900000001</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1644.3971</v>
+      </c>
+      <c r="J125" t="n">
+        <v>7255.129000000001</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>6559.8382</v>
+        <v>26044.8136</v>
       </c>
       <c r="C126" t="n">
-        <v>17.2</v>
+        <v>12.4</v>
       </c>
       <c r="D126" t="n">
-        <v>1583.1098</v>
+        <v>6886.8283</v>
       </c>
       <c r="E126" t="n">
-        <v>1.7</v>
+        <v>-1.8</v>
       </c>
       <c r="F126" t="n">
-        <v>8142.948</v>
+        <v>32931.6419</v>
       </c>
       <c r="G126" t="n">
-        <v>13.8</v>
+        <v>9.1</v>
+      </c>
+      <c r="H126" t="n">
+        <v>6472.0082</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1561.7164</v>
+      </c>
+      <c r="J126" t="n">
+        <v>8033.724600000001</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>13962.0735</v>
+        <v>34934.0869</v>
       </c>
       <c r="C127" t="n">
-        <v>18.3</v>
+        <v>16.2</v>
       </c>
       <c r="D127" t="n">
-        <v>3680.7148</v>
+        <v>9485.244500000001</v>
       </c>
       <c r="E127" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="F127" t="n">
-        <v>17642.7883</v>
+        <v>44419.3314</v>
       </c>
       <c r="G127" t="n">
-        <v>14.9</v>
+        <v>12.9</v>
+      </c>
+      <c r="H127" t="n">
+        <v>8889.273300000001</v>
+      </c>
+      <c r="I127" t="n">
+        <v>2598.416200000001</v>
+      </c>
+      <c r="J127" t="n">
+        <v>11487.6895</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>19572.8054</v>
+        <v>40956.945</v>
       </c>
       <c r="C128" t="n">
-        <v>9.199999999999999</v>
+        <v>16.7</v>
       </c>
       <c r="D128" t="n">
-        <v>5325.1119</v>
+        <v>11080.1708</v>
       </c>
       <c r="E128" t="n">
-        <v>-2.9</v>
+        <v>3.3</v>
       </c>
       <c r="F128" t="n">
-        <v>24897.9173</v>
+        <v>52037.1158</v>
       </c>
       <c r="G128" t="n">
-        <v>6.3</v>
+        <v>13.6</v>
+      </c>
+      <c r="H128" t="n">
+        <v>6022.858099999998</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1594.926299999999</v>
+      </c>
+      <c r="J128" t="n">
+        <v>7617.784399999997</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>26044.8136</v>
+        <v>47224.645</v>
       </c>
       <c r="C129" t="n">
-        <v>12.4</v>
+        <v>16.8</v>
       </c>
       <c r="D129" t="n">
-        <v>6886.8283</v>
+        <v>12629.5382</v>
       </c>
       <c r="E129" t="n">
-        <v>-1.8</v>
+        <v>2.9</v>
       </c>
       <c r="F129" t="n">
-        <v>32931.6419</v>
+        <v>59854.1832</v>
       </c>
       <c r="G129" t="n">
-        <v>9.1</v>
+        <v>13.6</v>
+      </c>
+      <c r="H129" t="n">
+        <v>6267.699999999997</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1549.367400000001</v>
+      </c>
+      <c r="J129" t="n">
+        <v>7817.0674</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>34934.0869</v>
+        <v>56205.5905</v>
       </c>
       <c r="C130" t="n">
-        <v>16.2</v>
+        <v>15.6</v>
       </c>
       <c r="D130" t="n">
-        <v>9485.244500000001</v>
+        <v>15083.156</v>
       </c>
       <c r="E130" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="F130" t="n">
-        <v>44419.3314</v>
+        <v>71288.74649999999</v>
       </c>
       <c r="G130" t="n">
         <v>12.9</v>
       </c>
+      <c r="H130" t="n">
+        <v>8980.945500000002</v>
+      </c>
+      <c r="I130" t="n">
+        <v>2453.6178</v>
+      </c>
+      <c r="J130" t="n">
+        <v>11434.56329999999</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>40956.945</v>
+        <v>62566.6736</v>
       </c>
       <c r="C131" t="n">
-        <v>16.7</v>
+        <v>11.8</v>
       </c>
       <c r="D131" t="n">
-        <v>11080.1708</v>
+        <v>17086.4497</v>
       </c>
       <c r="E131" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="F131" t="n">
-        <v>52037.1158</v>
+        <v>79653.12330000001</v>
       </c>
       <c r="G131" t="n">
-        <v>13.6</v>
+        <v>10</v>
+      </c>
+      <c r="H131" t="n">
+        <v>6361.083100000003</v>
+      </c>
+      <c r="I131" t="n">
+        <v>2003.2937</v>
+      </c>
+      <c r="J131" t="n">
+        <v>8364.376800000013</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>47224.645</v>
+        <v>69875.9932</v>
       </c>
       <c r="C132" t="n">
-        <v>16.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>12629.5382</v>
+        <v>19717.882</v>
       </c>
       <c r="E132" t="n">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="F132" t="n">
-        <v>59854.1832</v>
+        <v>89593.87519999999</v>
       </c>
       <c r="G132" t="n">
-        <v>13.6</v>
+        <v>8.5</v>
+      </c>
+      <c r="H132" t="n">
+        <v>7309.319599999995</v>
+      </c>
+      <c r="I132" t="n">
+        <v>2631.4323</v>
+      </c>
+      <c r="J132" t="n">
+        <v>9940.751899999988</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>56205.5905</v>
+        <v>83200.3851</v>
       </c>
       <c r="C133" t="n">
-        <v>15.6</v>
+        <v>6.5</v>
       </c>
       <c r="D133" t="n">
-        <v>15083.156</v>
+        <v>26745.174</v>
       </c>
       <c r="E133" t="n">
-        <v>3.7</v>
+        <v>0.3</v>
       </c>
       <c r="F133" t="n">
-        <v>71288.74649999999</v>
+        <v>109945.5591</v>
       </c>
       <c r="G133" t="n">
-        <v>12.9</v>
+        <v>4.9</v>
+      </c>
+      <c r="H133" t="n">
+        <v>13324.3919</v>
+      </c>
+      <c r="I133" t="n">
+        <v>7027.291999999998</v>
+      </c>
+      <c r="J133" t="n">
+        <v>20351.6839</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>61318.9157</v>
+        <v>5387.7853</v>
       </c>
       <c r="C134" t="n">
-        <v>-2</v>
+        <v>-17.9</v>
       </c>
       <c r="D134" t="n">
-        <v>17424.0231</v>
+        <v>1616.3685</v>
       </c>
       <c r="E134" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="F134" t="n">
-        <v>78742.9388</v>
+        <v>7004.1538</v>
       </c>
       <c r="G134" t="n">
-        <v>-1.1</v>
+        <v>-14</v>
+      </c>
+      <c r="H134" t="n">
+        <v>5387.7853</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1616.3685</v>
+      </c>
+      <c r="J134" t="n">
+        <v>7004.1538</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>71044.32550000001</v>
+        <v>11747.22</v>
       </c>
       <c r="C135" t="n">
-        <v>1.7</v>
+        <v>-15.9</v>
       </c>
       <c r="D135" t="n">
-        <v>20660.6609</v>
+        <v>3491.9318</v>
       </c>
       <c r="E135" t="n">
-        <v>4.8</v>
+        <v>-5.1</v>
       </c>
       <c r="F135" t="n">
-        <v>91704.98639999999</v>
+        <v>15239.1518</v>
       </c>
       <c r="G135" t="n">
-        <v>2.4</v>
+        <v>-13.6</v>
+      </c>
+      <c r="H135" t="n">
+        <v>6359.4347</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1875.5633</v>
+      </c>
+      <c r="J135" t="n">
+        <v>8234.998</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>84540.289</v>
+        <v>16566.2807</v>
       </c>
       <c r="C136" t="n">
-        <v>2.4</v>
+        <v>-15.4</v>
       </c>
       <c r="D136" t="n">
-        <v>26763.3574</v>
+        <v>4995.3832</v>
       </c>
       <c r="E136" t="n">
-        <v>-0.1</v>
+        <v>-6.2</v>
       </c>
       <c r="F136" t="n">
-        <v>111303.6464</v>
+        <v>21561.6639</v>
       </c>
       <c r="G136" t="n">
-        <v>1.8</v>
+        <v>-13.4</v>
+      </c>
+      <c r="H136" t="n">
+        <v>4819.0607</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1503.4514</v>
+      </c>
+      <c r="J136" t="n">
+        <v>6322.5121</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>5387.7853</v>
+        <v>22355.9843</v>
       </c>
       <c r="C137" t="n">
-        <v>-17.9</v>
+        <v>-14.2</v>
       </c>
       <c r="D137" t="n">
-        <v>1616.3685</v>
+        <v>6496.4697</v>
       </c>
       <c r="E137" t="n">
-        <v>2.1</v>
+        <v>-5.7</v>
       </c>
       <c r="F137" t="n">
-        <v>7004.1538</v>
+        <v>28852.454</v>
       </c>
       <c r="G137" t="n">
-        <v>-14</v>
+        <v>-12.4</v>
+      </c>
+      <c r="H137" t="n">
+        <v>5789.703600000001</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1501.086499999999</v>
+      </c>
+      <c r="J137" t="n">
+        <v>7290.790100000002</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>11747.22</v>
+        <v>30989.9005</v>
       </c>
       <c r="C138" t="n">
-        <v>-15.9</v>
+        <v>-11.3</v>
       </c>
       <c r="D138" t="n">
-        <v>3491.9318</v>
+        <v>8974.476699999999</v>
       </c>
       <c r="E138" t="n">
-        <v>-5.1</v>
+        <v>-5.4</v>
       </c>
       <c r="F138" t="n">
-        <v>15239.1518</v>
+        <v>39964.3772</v>
       </c>
       <c r="G138" t="n">
-        <v>-13.6</v>
+        <v>-10</v>
+      </c>
+      <c r="H138" t="n">
+        <v>8633.9162</v>
+      </c>
+      <c r="I138" t="n">
+        <v>2478.007</v>
+      </c>
+      <c r="J138" t="n">
+        <v>11111.9232</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>16566.2807</v>
+        <v>37796.9106</v>
       </c>
       <c r="C139" t="n">
-        <v>-15.4</v>
+        <v>-7.7</v>
       </c>
       <c r="D139" t="n">
-        <v>4995.3832</v>
+        <v>10796.3204</v>
       </c>
       <c r="E139" t="n">
-        <v>-6.2</v>
+        <v>-2.6</v>
       </c>
       <c r="F139" t="n">
-        <v>21561.6639</v>
+        <v>48593.231</v>
       </c>
       <c r="G139" t="n">
-        <v>-13.4</v>
+        <v>-6.6</v>
+      </c>
+      <c r="H139" t="n">
+        <v>6807.010100000003</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1821.843700000001</v>
+      </c>
+      <c r="J139" t="n">
+        <v>8628.853799999997</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>22355.9843</v>
+        <v>44887.6116</v>
       </c>
       <c r="C140" t="n">
-        <v>-14.2</v>
+        <v>-4.9</v>
       </c>
       <c r="D140" t="n">
-        <v>6496.4697</v>
+        <v>12527.2099</v>
       </c>
       <c r="E140" t="n">
-        <v>-5.7</v>
+        <v>-0.8</v>
       </c>
       <c r="F140" t="n">
-        <v>28852.454</v>
+        <v>57414.8215</v>
       </c>
       <c r="G140" t="n">
-        <v>-12.4</v>
+        <v>-4.1</v>
+      </c>
+      <c r="H140" t="n">
+        <v>7090.700999999994</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1730.889499999999</v>
+      </c>
+      <c r="J140" t="n">
+        <v>8821.590499999998</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>30989.9005</v>
+        <v>53581.6916</v>
       </c>
       <c r="C141" t="n">
-        <v>-11.3</v>
+        <v>-4.7</v>
       </c>
       <c r="D141" t="n">
-        <v>8974.476699999999</v>
+        <v>14859.7178</v>
       </c>
       <c r="E141" t="n">
-        <v>-5.4</v>
+        <v>-1.5</v>
       </c>
       <c r="F141" t="n">
-        <v>39964.3772</v>
+        <v>68441.4094</v>
       </c>
       <c r="G141" t="n">
-        <v>-10</v>
+        <v>-4</v>
+      </c>
+      <c r="H141" t="n">
+        <v>8694.080000000002</v>
+      </c>
+      <c r="I141" t="n">
+        <v>2332.507900000001</v>
+      </c>
+      <c r="J141" t="n">
+        <v>11026.58790000001</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>37796.9106</v>
+        <v>61318.9157</v>
       </c>
       <c r="C142" t="n">
-        <v>-7.7</v>
+        <v>-2</v>
       </c>
       <c r="D142" t="n">
-        <v>10796.3204</v>
+        <v>17424.0231</v>
       </c>
       <c r="E142" t="n">
-        <v>-2.6</v>
+        <v>2</v>
       </c>
       <c r="F142" t="n">
-        <v>48593.231</v>
+        <v>78742.9388</v>
       </c>
       <c r="G142" t="n">
-        <v>-6.6</v>
+        <v>-1.1</v>
+      </c>
+      <c r="H142" t="n">
+        <v>7737.224099999999</v>
+      </c>
+      <c r="I142" t="n">
+        <v>2564.305299999998</v>
+      </c>
+      <c r="J142" t="n">
+        <v>10301.5294</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>44887.6116</v>
+        <v>71044.32550000001</v>
       </c>
       <c r="C143" t="n">
-        <v>-4.9</v>
+        <v>1.7</v>
       </c>
       <c r="D143" t="n">
-        <v>12527.2099</v>
+        <v>20660.6609</v>
       </c>
       <c r="E143" t="n">
-        <v>-0.8</v>
+        <v>4.8</v>
       </c>
       <c r="F143" t="n">
-        <v>57414.8215</v>
+        <v>91704.98639999999</v>
       </c>
       <c r="G143" t="n">
-        <v>-4.1</v>
+        <v>2.4</v>
+      </c>
+      <c r="H143" t="n">
+        <v>9725.409800000009</v>
+      </c>
+      <c r="I143" t="n">
+        <v>3236.6378</v>
+      </c>
+      <c r="J143" t="n">
+        <v>12962.04759999999</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>53581.6916</v>
+        <v>84540.289</v>
       </c>
       <c r="C144" t="n">
-        <v>-4.7</v>
+        <v>2.4</v>
       </c>
       <c r="D144" t="n">
-        <v>14859.7178</v>
+        <v>26763.3574</v>
       </c>
       <c r="E144" t="n">
-        <v>-1.5</v>
+        <v>-0.1</v>
       </c>
       <c r="F144" t="n">
-        <v>68441.4094</v>
+        <v>111303.6464</v>
       </c>
       <c r="G144" t="n">
-        <v>-4</v>
+        <v>1.8</v>
+      </c>
+      <c r="H144" t="n">
+        <v>13495.9635</v>
+      </c>
+      <c r="I144" t="n">
+        <v>6102.696500000002</v>
+      </c>
+      <c r="J144" t="n">
+        <v>19598.66</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>74352.9662</v>
+        <v>8306.4324</v>
       </c>
       <c r="C145" t="n">
-        <v>21.3</v>
+        <v>54.2</v>
       </c>
       <c r="D145" t="n">
-        <v>21578.0206</v>
+        <v>2164.712</v>
       </c>
       <c r="E145" t="n">
-        <v>23.8</v>
+        <v>33.9</v>
       </c>
       <c r="F145" t="n">
-        <v>95930.9868</v>
+        <v>10471.1444</v>
       </c>
       <c r="G145" t="n">
-        <v>21.8</v>
+        <v>49.5</v>
+      </c>
+      <c r="H145" t="n">
+        <v>8306.4324</v>
+      </c>
+      <c r="I145" t="n">
+        <v>2164.712</v>
+      </c>
+      <c r="J145" t="n">
+        <v>10471.1444</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>85632.3088</v>
+        <v>16362.506</v>
       </c>
       <c r="C146" t="n">
-        <v>20.5</v>
+        <v>39.3</v>
       </c>
       <c r="D146" t="n">
-        <v>25174.4898</v>
+        <v>4535.4759</v>
       </c>
       <c r="E146" t="n">
-        <v>21.8</v>
+        <v>29.9</v>
       </c>
       <c r="F146" t="n">
-        <v>110806.7986</v>
+        <v>20897.9819</v>
       </c>
       <c r="G146" t="n">
-        <v>20.8</v>
+        <v>37.1</v>
+      </c>
+      <c r="H146" t="n">
+        <v>8056.0736</v>
+      </c>
+      <c r="I146" t="n">
+        <v>2370.7639</v>
+      </c>
+      <c r="J146" t="n">
+        <v>10426.8375</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>99549.2441</v>
+        <v>23224.362</v>
       </c>
       <c r="C147" t="n">
-        <v>17.8</v>
+        <v>40.2</v>
       </c>
       <c r="D147" t="n">
-        <v>31001.3486</v>
+        <v>6536.1625</v>
       </c>
       <c r="E147" t="n">
-        <v>15.8</v>
+        <v>30.8</v>
       </c>
       <c r="F147" t="n">
-        <v>130550.5927</v>
+        <v>29760.5245</v>
       </c>
       <c r="G147" t="n">
-        <v>17.3</v>
+        <v>38</v>
+      </c>
+      <c r="H147" t="n">
+        <v>6861.856000000002</v>
+      </c>
+      <c r="I147" t="n">
+        <v>2000.6866</v>
+      </c>
+      <c r="J147" t="n">
+        <v>8862.542600000001</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>8306.4324</v>
+        <v>30527.9793</v>
       </c>
       <c r="C148" t="n">
-        <v>54.2</v>
+        <v>36.6</v>
       </c>
       <c r="D148" t="n">
-        <v>2164.712</v>
+        <v>8590.149100000001</v>
       </c>
       <c r="E148" t="n">
-        <v>33.9</v>
+        <v>32.2</v>
       </c>
       <c r="F148" t="n">
-        <v>10471.1444</v>
+        <v>39118.1284</v>
       </c>
       <c r="G148" t="n">
-        <v>49.5</v>
+        <v>35.6</v>
+      </c>
+      <c r="H148" t="n">
+        <v>7303.617299999998</v>
+      </c>
+      <c r="I148" t="n">
+        <v>2053.9866</v>
+      </c>
+      <c r="J148" t="n">
+        <v>9357.603900000002</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>16362.506</v>
+        <v>39838.3598</v>
       </c>
       <c r="C149" t="n">
-        <v>39.3</v>
+        <v>28.6</v>
       </c>
       <c r="D149" t="n">
-        <v>4535.4759</v>
+        <v>11594.9716</v>
       </c>
       <c r="E149" t="n">
-        <v>29.9</v>
+        <v>29.2</v>
       </c>
       <c r="F149" t="n">
-        <v>20897.9819</v>
+        <v>51433.3314</v>
       </c>
       <c r="G149" t="n">
-        <v>37.1</v>
+        <v>28.7</v>
+      </c>
+      <c r="H149" t="n">
+        <v>9310.380499999999</v>
+      </c>
+      <c r="I149" t="n">
+        <v>3004.8225</v>
+      </c>
+      <c r="J149" t="n">
+        <v>12315.203</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>23224.362</v>
+        <v>47400.204</v>
       </c>
       <c r="C150" t="n">
-        <v>40.2</v>
+        <v>25.4</v>
       </c>
       <c r="D150" t="n">
-        <v>6536.1625</v>
+        <v>13733.0781</v>
       </c>
       <c r="E150" t="n">
-        <v>30.8</v>
+        <v>27.2</v>
       </c>
       <c r="F150" t="n">
-        <v>29760.5245</v>
+        <v>61133.2821</v>
       </c>
       <c r="G150" t="n">
-        <v>38</v>
+        <v>25.8</v>
+      </c>
+      <c r="H150" t="n">
+        <v>7561.8442</v>
+      </c>
+      <c r="I150" t="n">
+        <v>2138.1065</v>
+      </c>
+      <c r="J150" t="n">
+        <v>9699.950699999994</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>30527.9793</v>
+        <v>54993.4038</v>
       </c>
       <c r="C151" t="n">
-        <v>36.6</v>
+        <v>22.5</v>
       </c>
       <c r="D151" t="n">
-        <v>8590.149100000001</v>
+        <v>15848.4991</v>
       </c>
       <c r="E151" t="n">
-        <v>32.2</v>
+        <v>26.5</v>
       </c>
       <c r="F151" t="n">
-        <v>39118.1284</v>
+        <v>70841.9029</v>
       </c>
       <c r="G151" t="n">
-        <v>35.6</v>
+        <v>23.4</v>
+      </c>
+      <c r="H151" t="n">
+        <v>7593.199800000002</v>
+      </c>
+      <c r="I151" t="n">
+        <v>2115.421</v>
+      </c>
+      <c r="J151" t="n">
+        <v>9708.620800000004</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>39838.3598</v>
+        <v>65392.7521</v>
       </c>
       <c r="C152" t="n">
-        <v>28.6</v>
+        <v>22</v>
       </c>
       <c r="D152" t="n">
-        <v>11594.9716</v>
+        <v>18990.5552</v>
       </c>
       <c r="E152" t="n">
-        <v>29.2</v>
+        <v>27.8</v>
       </c>
       <c r="F152" t="n">
-        <v>51433.3314</v>
+        <v>84383.3073</v>
       </c>
       <c r="G152" t="n">
-        <v>28.7</v>
+        <v>23.3</v>
+      </c>
+      <c r="H152" t="n">
+        <v>10399.3483</v>
+      </c>
+      <c r="I152" t="n">
+        <v>3142.056099999998</v>
+      </c>
+      <c r="J152" t="n">
+        <v>13541.4044</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>47400.204</v>
+        <v>74352.9662</v>
       </c>
       <c r="C153" t="n">
-        <v>25.4</v>
+        <v>21.3</v>
       </c>
       <c r="D153" t="n">
-        <v>13733.0781</v>
+        <v>21578.0206</v>
       </c>
       <c r="E153" t="n">
-        <v>27.2</v>
+        <v>23.8</v>
       </c>
       <c r="F153" t="n">
-        <v>61133.2821</v>
+        <v>95930.9868</v>
       </c>
       <c r="G153" t="n">
-        <v>25.8</v>
+        <v>21.8</v>
+      </c>
+      <c r="H153" t="n">
+        <v>8960.214099999997</v>
+      </c>
+      <c r="I153" t="n">
+        <v>2587.465400000001</v>
+      </c>
+      <c r="J153" t="n">
+        <v>11547.6795</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>54993.4038</v>
+        <v>85632.3088</v>
       </c>
       <c r="C154" t="n">
-        <v>22.5</v>
+        <v>20.5</v>
       </c>
       <c r="D154" t="n">
-        <v>15848.4991</v>
+        <v>25174.4898</v>
       </c>
       <c r="E154" t="n">
-        <v>26.5</v>
+        <v>21.8</v>
       </c>
       <c r="F154" t="n">
-        <v>70841.9029</v>
+        <v>110806.7986</v>
       </c>
       <c r="G154" t="n">
-        <v>23.4</v>
+        <v>20.8</v>
+      </c>
+      <c r="H154" t="n">
+        <v>11279.3426</v>
+      </c>
+      <c r="I154" t="n">
+        <v>3596.4692</v>
+      </c>
+      <c r="J154" t="n">
+        <v>14875.8118</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>65392.7521</v>
+        <v>99549.2441</v>
       </c>
       <c r="C155" t="n">
-        <v>22</v>
+        <v>17.8</v>
       </c>
       <c r="D155" t="n">
-        <v>18990.5552</v>
+        <v>31001.3486</v>
       </c>
       <c r="E155" t="n">
-        <v>27.8</v>
+        <v>15.8</v>
       </c>
       <c r="F155" t="n">
-        <v>84383.3073</v>
+        <v>130550.5927</v>
       </c>
       <c r="G155" t="n">
-        <v>23.3</v>
+        <v>17.3</v>
+      </c>
+      <c r="H155" t="n">
+        <v>13916.9353</v>
+      </c>
+      <c r="I155" t="n">
+        <v>5826.858800000002</v>
+      </c>
+      <c r="J155" t="n">
+        <v>19743.7941</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>68040.4616</v>
+        <v>8160.5925</v>
       </c>
       <c r="C156" t="n">
-        <v>-8.5</v>
+        <v>-1.8</v>
       </c>
       <c r="D156" t="n">
-        <v>20453.3518</v>
+        <v>2305.0261</v>
       </c>
       <c r="E156" t="n">
-        <v>-5.2</v>
+        <v>6.5</v>
       </c>
       <c r="F156" t="n">
-        <v>88493.8134</v>
+        <v>10465.6186</v>
       </c>
       <c r="G156" t="n">
-        <v>-7.8</v>
+        <v>-0.1</v>
+      </c>
+      <c r="H156" t="n">
+        <v>8160.5925</v>
+      </c>
+      <c r="I156" t="n">
+        <v>2305.0261</v>
+      </c>
+      <c r="J156" t="n">
+        <v>10465.6186</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>78090.8514</v>
+        <v>15511.2595</v>
       </c>
       <c r="C157" t="n">
-        <v>-8.800000000000001</v>
+        <v>-5.2</v>
       </c>
       <c r="D157" t="n">
-        <v>23625.7202</v>
+        <v>4599.9202</v>
       </c>
       <c r="E157" t="n">
-        <v>-6.2</v>
+        <v>1.4</v>
       </c>
       <c r="F157" t="n">
-        <v>101716.5716</v>
+        <v>20111.1797</v>
       </c>
       <c r="G157" t="n">
-        <v>-8.199999999999999</v>
+        <v>-3.8</v>
+      </c>
+      <c r="H157" t="n">
+        <v>7350.667</v>
+      </c>
+      <c r="I157" t="n">
+        <v>2294.8941</v>
+      </c>
+      <c r="J157" t="n">
+        <v>9645.561100000001</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>91778.9687</v>
+        <v>21339.2934</v>
       </c>
       <c r="C158" t="n">
-        <v>-7.8</v>
+        <v>-8.1</v>
       </c>
       <c r="D158" t="n">
-        <v>28869.5727</v>
+        <v>6369.9636</v>
       </c>
       <c r="E158" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="F158" t="n">
+        <v>27709.257</v>
+      </c>
+      <c r="G158" t="n">
         <v>-6.9</v>
       </c>
-      <c r="F158" t="n">
-        <v>120648.5414</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-7.6</v>
+      <c r="H158" t="n">
+        <v>5828.033899999999</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1770.0434</v>
+      </c>
+      <c r="J158" t="n">
+        <v>7598.077300000001</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>8160.5925</v>
+        <v>27905.8464</v>
       </c>
       <c r="C159" t="n">
-        <v>-1.8</v>
+        <v>-8.6</v>
       </c>
       <c r="D159" t="n">
-        <v>2305.0261</v>
+        <v>8163.7537</v>
       </c>
       <c r="E159" t="n">
-        <v>6.5</v>
+        <v>-5</v>
       </c>
       <c r="F159" t="n">
-        <v>10465.6186</v>
+        <v>36069.6001</v>
       </c>
       <c r="G159" t="n">
-        <v>-0.1</v>
+        <v>-7.8</v>
+      </c>
+      <c r="H159" t="n">
+        <v>6566.553</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1793.7901</v>
+      </c>
+      <c r="J159" t="n">
+        <v>8360.343100000002</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>15511.2595</v>
+        <v>37170.6211</v>
       </c>
       <c r="C160" t="n">
-        <v>-5.2</v>
+        <v>-6.7</v>
       </c>
       <c r="D160" t="n">
-        <v>4599.9202</v>
+        <v>11194.6108</v>
       </c>
       <c r="E160" t="n">
-        <v>1.4</v>
+        <v>-3.5</v>
       </c>
       <c r="F160" t="n">
-        <v>20111.1797</v>
+        <v>48365.2319</v>
       </c>
       <c r="G160" t="n">
-        <v>-3.8</v>
+        <v>-6</v>
+      </c>
+      <c r="H160" t="n">
+        <v>9264.774699999998</v>
+      </c>
+      <c r="I160" t="n">
+        <v>3030.8571</v>
+      </c>
+      <c r="J160" t="n">
+        <v>12295.6318</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>21339.2934</v>
+        <v>43409.3977</v>
       </c>
       <c r="C161" t="n">
-        <v>-8.1</v>
+        <v>-8.4</v>
       </c>
       <c r="D161" t="n">
-        <v>6369.9636</v>
+        <v>13070.1909</v>
       </c>
       <c r="E161" t="n">
-        <v>-2.5</v>
+        <v>-4.8</v>
       </c>
       <c r="F161" t="n">
-        <v>27709.257</v>
+        <v>56479.5886</v>
       </c>
       <c r="G161" t="n">
-        <v>-6.9</v>
+        <v>-7.6</v>
+      </c>
+      <c r="H161" t="n">
+        <v>6238.776600000005</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1875.580099999999</v>
+      </c>
+      <c r="J161" t="n">
+        <v>8114.356700000004</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>27905.8464</v>
+        <v>49969.9235</v>
       </c>
       <c r="C162" t="n">
-        <v>-8.6</v>
+        <v>-9.1</v>
       </c>
       <c r="D162" t="n">
-        <v>8163.7537</v>
+        <v>15017.5753</v>
       </c>
       <c r="E162" t="n">
-        <v>-5</v>
+        <v>-5.2</v>
       </c>
       <c r="F162" t="n">
-        <v>36069.6001</v>
+        <v>64987.4988</v>
       </c>
       <c r="G162" t="n">
-        <v>-7.8</v>
+        <v>-8.300000000000001</v>
+      </c>
+      <c r="H162" t="n">
+        <v>6560.525799999996</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1947.384400000001</v>
+      </c>
+      <c r="J162" t="n">
+        <v>8507.910199999998</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>37170.6211</v>
+        <v>59263.5822</v>
       </c>
       <c r="C163" t="n">
-        <v>-6.7</v>
+        <v>-9.4</v>
       </c>
       <c r="D163" t="n">
-        <v>11194.6108</v>
+        <v>17868.2372</v>
       </c>
       <c r="E163" t="n">
-        <v>-3.5</v>
+        <v>-5.9</v>
       </c>
       <c r="F163" t="n">
-        <v>48365.2319</v>
+        <v>77131.81939999999</v>
       </c>
       <c r="G163" t="n">
-        <v>-6</v>
+        <v>-8.6</v>
+      </c>
+      <c r="H163" t="n">
+        <v>9293.6587</v>
+      </c>
+      <c r="I163" t="n">
+        <v>2850.661899999999</v>
+      </c>
+      <c r="J163" t="n">
+        <v>12144.32059999999</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>43409.3977</v>
+        <v>68040.4616</v>
       </c>
       <c r="C164" t="n">
-        <v>-8.4</v>
+        <v>-8.5</v>
       </c>
       <c r="D164" t="n">
-        <v>13070.1909</v>
+        <v>20453.3518</v>
       </c>
       <c r="E164" t="n">
-        <v>-4.8</v>
+        <v>-5.2</v>
       </c>
       <c r="F164" t="n">
-        <v>56479.5886</v>
+        <v>88493.8134</v>
       </c>
       <c r="G164" t="n">
-        <v>-7.6</v>
+        <v>-7.8</v>
+      </c>
+      <c r="H164" t="n">
+        <v>8776.879399999998</v>
+      </c>
+      <c r="I164" t="n">
+        <v>2585.114600000001</v>
+      </c>
+      <c r="J164" t="n">
+        <v>11361.99400000001</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>49969.9235</v>
+        <v>78090.8514</v>
       </c>
       <c r="C165" t="n">
-        <v>-9.1</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="D165" t="n">
-        <v>15017.5753</v>
+        <v>23625.7202</v>
       </c>
       <c r="E165" t="n">
-        <v>-5.2</v>
+        <v>-6.2</v>
       </c>
       <c r="F165" t="n">
-        <v>64987.4988</v>
+        <v>101716.5716</v>
       </c>
       <c r="G165" t="n">
-        <v>-8.300000000000001</v>
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="H165" t="n">
+        <v>10050.3898</v>
+      </c>
+      <c r="I165" t="n">
+        <v>3172.368399999999</v>
+      </c>
+      <c r="J165" t="n">
+        <v>13222.7582</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>59263.5822</v>
+        <v>91778.9687</v>
       </c>
       <c r="C166" t="n">
-        <v>-9.4</v>
+        <v>-7.8</v>
       </c>
       <c r="D166" t="n">
-        <v>17868.2372</v>
+        <v>28869.5727</v>
       </c>
       <c r="E166" t="n">
-        <v>-5.9</v>
+        <v>-6.9</v>
       </c>
       <c r="F166" t="n">
-        <v>77131.81939999999</v>
+        <v>120648.5414</v>
       </c>
       <c r="G166" t="n">
-        <v>-8.6</v>
+        <v>-7.6</v>
+      </c>
+      <c r="H166" t="n">
+        <v>13688.1173</v>
+      </c>
+      <c r="I166" t="n">
+        <v>5243.852500000001</v>
+      </c>
+      <c r="J166" t="n">
+        <v>18931.96980000001</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>72639.01300000001</v>
+        <v>6779.6959</v>
       </c>
       <c r="C167" t="n">
-        <v>6.8</v>
+        <v>-16.9</v>
       </c>
       <c r="D167" t="n">
-        <v>22259.1083</v>
+        <v>1984.1988</v>
       </c>
       <c r="E167" t="n">
-        <v>8.800000000000001</v>
+        <v>-13.9</v>
       </c>
       <c r="F167" t="n">
-        <v>94898.1213</v>
+        <v>8763.894700000001</v>
       </c>
       <c r="G167" t="n">
-        <v>7.2</v>
+        <v>-16.3</v>
+      </c>
+      <c r="H167" t="n">
+        <v>6779.6959</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1984.1988</v>
+      </c>
+      <c r="J167" t="n">
+        <v>8763.894700000001</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>83209.424</v>
+        <v>14024.9375</v>
       </c>
       <c r="C168" t="n">
-        <v>6.6</v>
+        <v>-9.6</v>
       </c>
       <c r="D168" t="n">
-        <v>26043.3121</v>
+        <v>4229.5033</v>
       </c>
       <c r="E168" t="n">
-        <v>10.2</v>
+        <v>-8.1</v>
       </c>
       <c r="F168" t="n">
-        <v>109252.7361</v>
+        <v>18254.4408</v>
       </c>
       <c r="G168" t="n">
-        <v>7.4</v>
+        <v>-9.199999999999999</v>
+      </c>
+      <c r="H168" t="n">
+        <v>7245.2416</v>
+      </c>
+      <c r="I168" t="n">
+        <v>2245.3045</v>
+      </c>
+      <c r="J168" t="n">
+        <v>9490.5461</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>96792.3561</v>
+        <v>20349.2634</v>
       </c>
       <c r="C169" t="n">
-        <v>5.5</v>
+        <v>-4.6</v>
       </c>
       <c r="D169" t="n">
-        <v>31702.6099</v>
+        <v>6035.3049</v>
       </c>
       <c r="E169" t="n">
-        <v>9.800000000000001</v>
+        <v>-5.3</v>
       </c>
       <c r="F169" t="n">
-        <v>128494.966</v>
+        <v>26384.5683</v>
       </c>
       <c r="G169" t="n">
-        <v>6.5</v>
+        <v>-4.8</v>
+      </c>
+      <c r="H169" t="n">
+        <v>6324.3259</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1805.8016</v>
+      </c>
+      <c r="J169" t="n">
+        <v>8130.127499999999</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>6779.6959</v>
+        <v>27769.7668</v>
       </c>
       <c r="C170" t="n">
-        <v>-16.9</v>
+        <v>-0.5</v>
       </c>
       <c r="D170" t="n">
-        <v>1984.1988</v>
+        <v>8226.614100000001</v>
       </c>
       <c r="E170" t="n">
-        <v>-13.9</v>
+        <v>0.8</v>
       </c>
       <c r="F170" t="n">
-        <v>8763.894700000001</v>
+        <v>35996.3809</v>
       </c>
       <c r="G170" t="n">
-        <v>-16.3</v>
+        <v>-0.2</v>
+      </c>
+      <c r="H170" t="n">
+        <v>7420.503400000001</v>
+      </c>
+      <c r="I170" t="n">
+        <v>2191.309200000001</v>
+      </c>
+      <c r="J170" t="n">
+        <v>9611.812599999997</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>14024.9375</v>
+        <v>38639.7694</v>
       </c>
       <c r="C171" t="n">
-        <v>-9.6</v>
+        <v>4</v>
       </c>
       <c r="D171" t="n">
-        <v>4229.5033</v>
+        <v>11623.8698</v>
       </c>
       <c r="E171" t="n">
-        <v>-8.1</v>
+        <v>3.8</v>
       </c>
       <c r="F171" t="n">
-        <v>18254.4408</v>
+        <v>50263.6392</v>
       </c>
       <c r="G171" t="n">
-        <v>-9.199999999999999</v>
+        <v>3.9</v>
+      </c>
+      <c r="H171" t="n">
+        <v>10870.0026</v>
+      </c>
+      <c r="I171" t="n">
+        <v>3397.2557</v>
+      </c>
+      <c r="J171" t="n">
+        <v>14267.2583</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>20349.2634</v>
+        <v>46085.3864</v>
       </c>
       <c r="C172" t="n">
-        <v>-4.6</v>
+        <v>6.2</v>
       </c>
       <c r="D172" t="n">
-        <v>6035.3049</v>
+        <v>13829.0345</v>
       </c>
       <c r="E172" t="n">
-        <v>-5.3</v>
+        <v>5.8</v>
       </c>
       <c r="F172" t="n">
-        <v>26384.5683</v>
+        <v>59914.4209</v>
       </c>
       <c r="G172" t="n">
-        <v>-4.8</v>
+        <v>6.1</v>
+      </c>
+      <c r="H172" t="n">
+        <v>7445.617000000006</v>
+      </c>
+      <c r="I172" t="n">
+        <v>2205.164699999999</v>
+      </c>
+      <c r="J172" t="n">
+        <v>9650.7817</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>27769.7668</v>
+        <v>53684.3832</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.5</v>
+        <v>7.4</v>
       </c>
       <c r="D173" t="n">
-        <v>8226.614100000001</v>
+        <v>15990.5749</v>
       </c>
       <c r="E173" t="n">
-        <v>0.8</v>
+        <v>6.5</v>
       </c>
       <c r="F173" t="n">
-        <v>35996.3809</v>
+        <v>69674.9581</v>
       </c>
       <c r="G173" t="n">
-        <v>-0.2</v>
+        <v>7.2</v>
+      </c>
+      <c r="H173" t="n">
+        <v>7598.996799999994</v>
+      </c>
+      <c r="I173" t="n">
+        <v>2161.5404</v>
+      </c>
+      <c r="J173" t="n">
+        <v>9760.537200000006</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>38639.7694</v>
+        <v>63492.2321</v>
       </c>
       <c r="C174" t="n">
-        <v>4</v>
+        <v>7.1</v>
       </c>
       <c r="D174" t="n">
-        <v>11623.8698</v>
+        <v>19416.0139</v>
       </c>
       <c r="E174" t="n">
-        <v>3.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F174" t="n">
-        <v>50263.6392</v>
+        <v>82908</v>
       </c>
       <c r="G174" t="n">
-        <v>3.9</v>
+        <v>7.5</v>
+      </c>
+      <c r="H174" t="n">
+        <v>9807.848900000005</v>
+      </c>
+      <c r="I174" t="n">
+        <v>3425.439000000002</v>
+      </c>
+      <c r="J174" t="n">
+        <v>13233.0419</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>46085.3864</v>
+        <v>72639.01300000001</v>
       </c>
       <c r="C175" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="D175" t="n">
-        <v>13829.0345</v>
+        <v>22259.1083</v>
       </c>
       <c r="E175" t="n">
-        <v>5.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F175" t="n">
-        <v>59914.4209</v>
+        <v>94898.1213</v>
       </c>
       <c r="G175" t="n">
-        <v>6.1</v>
+        <v>7.2</v>
+      </c>
+      <c r="H175" t="n">
+        <v>9146.780900000005</v>
+      </c>
+      <c r="I175" t="n">
+        <v>2843.094399999998</v>
+      </c>
+      <c r="J175" t="n">
+        <v>11990.1213</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>53684.3832</v>
+        <v>83209.424</v>
       </c>
       <c r="C176" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D176" t="n">
+        <v>26043.3121</v>
+      </c>
+      <c r="E176" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F176" t="n">
+        <v>109252.7361</v>
+      </c>
+      <c r="G176" t="n">
         <v>7.4</v>
       </c>
-      <c r="D176" t="n">
-        <v>15990.5749</v>
-      </c>
-      <c r="E176" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F176" t="n">
-        <v>69674.9581</v>
-      </c>
-      <c r="G176" t="n">
-        <v>7.2</v>
+      <c r="H176" t="n">
+        <v>10570.41099999999</v>
+      </c>
+      <c r="I176" t="n">
+        <v>3784.203799999999</v>
+      </c>
+      <c r="J176" t="n">
+        <v>14354.6148</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>63492.2321</v>
+        <v>96792.3561</v>
       </c>
       <c r="C177" t="n">
-        <v>7.1</v>
+        <v>5.5</v>
       </c>
       <c r="D177" t="n">
-        <v>19416.0139</v>
+        <v>31702.6099</v>
       </c>
       <c r="E177" t="n">
-        <v>8.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F177" t="n">
-        <v>82908</v>
+        <v>128494.966</v>
       </c>
       <c r="G177" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
+      </c>
+      <c r="H177" t="n">
+        <v>13582.93210000001</v>
+      </c>
+      <c r="I177" t="n">
+        <v>5659.2978</v>
+      </c>
+      <c r="J177" t="n">
+        <v>19242.22990000001</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>91640.1102</v>
+        <v>8519.489100000001</v>
       </c>
       <c r="C178" t="n">
-        <v>26.2</v>
+        <v>25.7</v>
       </c>
       <c r="D178" t="n">
-        <v>28698.1683</v>
+        <v>2715.069</v>
       </c>
       <c r="E178" t="n">
-        <v>28.9</v>
+        <v>36.8</v>
       </c>
       <c r="F178" t="n">
-        <v>120338.2785</v>
+        <v>11234.5581</v>
       </c>
       <c r="G178" t="n">
-        <v>26.8</v>
+        <v>28.2</v>
+      </c>
+      <c r="H178" t="n">
+        <v>8519.489100000001</v>
+      </c>
+      <c r="I178" t="n">
+        <v>2715.069</v>
+      </c>
+      <c r="J178" t="n">
+        <v>11234.5581</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>102889.9403</v>
+        <v>18425.1692</v>
       </c>
       <c r="C179" t="n">
-        <v>23.7</v>
+        <v>31.4</v>
       </c>
       <c r="D179" t="n">
-        <v>32939.5447</v>
+        <v>5874.0371</v>
       </c>
       <c r="E179" t="n">
-        <v>26.5</v>
+        <v>38.9</v>
       </c>
       <c r="F179" t="n">
-        <v>135829.485</v>
+        <v>24299.2063</v>
       </c>
       <c r="G179" t="n">
-        <v>24.3</v>
+        <v>33.1</v>
+      </c>
+      <c r="H179" t="n">
+        <v>9905.6801</v>
+      </c>
+      <c r="I179" t="n">
+        <v>3158.9681</v>
+      </c>
+      <c r="J179" t="n">
+        <v>13064.6482</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>118026.3894</v>
+        <v>27359.2362</v>
       </c>
       <c r="C180" t="n">
-        <v>21.9</v>
+        <v>34.4</v>
       </c>
       <c r="D180" t="n">
-        <v>39322.1399</v>
+        <v>8653.007100000001</v>
       </c>
       <c r="E180" t="n">
-        <v>24</v>
+        <v>43.4</v>
       </c>
       <c r="F180" t="n">
-        <v>157349</v>
+        <v>36012.2433</v>
       </c>
       <c r="G180" t="n">
-        <v>22.5</v>
+        <v>36.5</v>
+      </c>
+      <c r="H180" t="n">
+        <v>8934.066999999999</v>
+      </c>
+      <c r="I180" t="n">
+        <v>2778.970000000001</v>
+      </c>
+      <c r="J180" t="n">
+        <v>11713.037</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>8519.489100000001</v>
+        <v>36379.4723</v>
       </c>
       <c r="C181" t="n">
-        <v>25.7</v>
+        <v>31</v>
       </c>
       <c r="D181" t="n">
-        <v>2715.069</v>
+        <v>11574.7432</v>
       </c>
       <c r="E181" t="n">
-        <v>36.8</v>
+        <v>40.7</v>
       </c>
       <c r="F181" t="n">
-        <v>11234.5581</v>
+        <v>47954.2155</v>
       </c>
       <c r="G181" t="n">
-        <v>28.2</v>
+        <v>33.2</v>
+      </c>
+      <c r="H181" t="n">
+        <v>9020.236100000002</v>
+      </c>
+      <c r="I181" t="n">
+        <v>2921.7361</v>
+      </c>
+      <c r="J181" t="n">
+        <v>11941.9722</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>18425.1692</v>
+        <v>48727.0922</v>
       </c>
       <c r="C182" t="n">
-        <v>31.4</v>
+        <v>26.1</v>
       </c>
       <c r="D182" t="n">
-        <v>5874.0371</v>
+        <v>15575.4011</v>
       </c>
       <c r="E182" t="n">
-        <v>38.9</v>
+        <v>34</v>
       </c>
       <c r="F182" t="n">
-        <v>24299.2063</v>
+        <v>64302.4933</v>
       </c>
       <c r="G182" t="n">
-        <v>33.1</v>
+        <v>27.9</v>
+      </c>
+      <c r="H182" t="n">
+        <v>12347.6199</v>
+      </c>
+      <c r="I182" t="n">
+        <v>4000.657899999998</v>
+      </c>
+      <c r="J182" t="n">
+        <v>16348.2778</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>27359.2362</v>
+        <v>57452.9958</v>
       </c>
       <c r="C183" t="n">
-        <v>34.4</v>
+        <v>24.7</v>
       </c>
       <c r="D183" t="n">
-        <v>8653.007100000001</v>
+        <v>18307.1935</v>
       </c>
       <c r="E183" t="n">
-        <v>43.4</v>
+        <v>32.4</v>
       </c>
       <c r="F183" t="n">
-        <v>36012.2433</v>
+        <v>75760.1893</v>
       </c>
       <c r="G183" t="n">
-        <v>36.5</v>
+        <v>26.4</v>
+      </c>
+      <c r="H183" t="n">
+        <v>8725.903599999998</v>
+      </c>
+      <c r="I183" t="n">
+        <v>2731.792400000002</v>
+      </c>
+      <c r="J183" t="n">
+        <v>11457.696</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>36379.4723</v>
+        <v>66510.0858</v>
       </c>
       <c r="C184" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="D184" t="n">
+        <v>20940.6889</v>
+      </c>
+      <c r="E184" t="n">
         <v>31</v>
       </c>
-      <c r="D184" t="n">
-        <v>11574.7432</v>
-      </c>
-      <c r="E184" t="n">
-        <v>40.7</v>
-      </c>
       <c r="F184" t="n">
-        <v>47954.2155</v>
+        <v>87450.77469999999</v>
       </c>
       <c r="G184" t="n">
-        <v>33.2</v>
+        <v>25.5</v>
+      </c>
+      <c r="H184" t="n">
+        <v>9057.090000000004</v>
+      </c>
+      <c r="I184" t="n">
+        <v>2633.4954</v>
+      </c>
+      <c r="J184" t="n">
+        <v>11690.5854</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>48727.0922</v>
+        <v>80001.0148</v>
       </c>
       <c r="C185" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="D185" t="n">
-        <v>15575.4011</v>
+        <v>25183.5161</v>
       </c>
       <c r="E185" t="n">
-        <v>34</v>
+        <v>29.7</v>
       </c>
       <c r="F185" t="n">
-        <v>64302.4933</v>
+        <v>105184.5309</v>
       </c>
       <c r="G185" t="n">
-        <v>27.9</v>
+        <v>26.9</v>
+      </c>
+      <c r="H185" t="n">
+        <v>13490.929</v>
+      </c>
+      <c r="I185" t="n">
+        <v>4242.8272</v>
+      </c>
+      <c r="J185" t="n">
+        <v>17733.7562</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>57452.9958</v>
+        <v>91640.1102</v>
       </c>
       <c r="C186" t="n">
-        <v>24.7</v>
+        <v>26.2</v>
       </c>
       <c r="D186" t="n">
-        <v>18307.1935</v>
+        <v>28698.1683</v>
       </c>
       <c r="E186" t="n">
-        <v>32.4</v>
+        <v>28.9</v>
       </c>
       <c r="F186" t="n">
-        <v>75760.1893</v>
+        <v>120338.2785</v>
       </c>
       <c r="G186" t="n">
-        <v>26.4</v>
+        <v>26.8</v>
+      </c>
+      <c r="H186" t="n">
+        <v>11639.09539999999</v>
+      </c>
+      <c r="I186" t="n">
+        <v>3514.6522</v>
+      </c>
+      <c r="J186" t="n">
+        <v>15153.7476</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>66510.0858</v>
+        <v>102889.9403</v>
       </c>
       <c r="C187" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="D187" t="n">
-        <v>20940.6889</v>
+        <v>32939.5447</v>
       </c>
       <c r="E187" t="n">
-        <v>31</v>
+        <v>26.5</v>
       </c>
       <c r="F187" t="n">
-        <v>87450.77469999999</v>
+        <v>135829.485</v>
       </c>
       <c r="G187" t="n">
-        <v>25.5</v>
+        <v>24.3</v>
+      </c>
+      <c r="H187" t="n">
+        <v>11249.83010000001</v>
+      </c>
+      <c r="I187" t="n">
+        <v>4241.376399999997</v>
+      </c>
+      <c r="J187" t="n">
+        <v>15491.20649999999</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>80001.0148</v>
+        <v>118026.3894</v>
       </c>
       <c r="C188" t="n">
-        <v>26</v>
+        <v>21.9</v>
       </c>
       <c r="D188" t="n">
-        <v>25183.5161</v>
+        <v>39322.1399</v>
       </c>
       <c r="E188" t="n">
-        <v>29.7</v>
+        <v>24</v>
       </c>
       <c r="F188" t="n">
-        <v>105184.5309</v>
+        <v>157349</v>
       </c>
       <c r="G188" t="n">
-        <v>26.9</v>
+        <v>22.5</v>
+      </c>
+      <c r="H188" t="n">
+        <v>15136.4491</v>
+      </c>
+      <c r="I188" t="n">
+        <v>6382.595200000003</v>
+      </c>
+      <c r="J188" t="n">
+        <v>21519.51500000001</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>99464.71249999999</v>
+        <v>10752.9902</v>
       </c>
       <c r="C189" t="n">
-        <v>8.5</v>
+        <v>26.2</v>
       </c>
       <c r="D189" t="n">
-        <v>30789.1835</v>
+        <v>3301.3491</v>
       </c>
       <c r="E189" t="n">
-        <v>7.3</v>
+        <v>21.6</v>
       </c>
       <c r="F189" t="n">
-        <v>130253.896</v>
+        <v>14054.3393</v>
       </c>
       <c r="G189" t="n">
-        <v>8.199999999999999</v>
+        <v>25.1</v>
+      </c>
+      <c r="H189" t="n">
+        <v>10752.9902</v>
+      </c>
+      <c r="I189" t="n">
+        <v>3301.3491</v>
+      </c>
+      <c r="J189" t="n">
+        <v>14054.3393</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>112020.025</v>
+        <v>22104.2439</v>
       </c>
       <c r="C190" t="n">
-        <v>8.9</v>
+        <v>20</v>
       </c>
       <c r="D190" t="n">
-        <v>34548.2943</v>
+        <v>6930.6046</v>
       </c>
       <c r="E190" t="n">
-        <v>4.9</v>
+        <v>18</v>
       </c>
       <c r="F190" t="n">
-        <v>146568.3193</v>
+        <v>29034.8485</v>
       </c>
       <c r="G190" t="n">
-        <v>7.9</v>
+        <v>19.5</v>
+      </c>
+      <c r="H190" t="n">
+        <v>11351.2537</v>
+      </c>
+      <c r="I190" t="n">
+        <v>3629.2555</v>
+      </c>
+      <c r="J190" t="n">
+        <v>14980.5092</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>129413.0482</v>
+        <v>31814.4613</v>
       </c>
       <c r="C191" t="n">
-        <v>9.6</v>
+        <v>16.3</v>
       </c>
       <c r="D191" t="n">
-        <v>39994.7672</v>
+        <v>9840.6922</v>
       </c>
       <c r="E191" t="n">
-        <v>1.7</v>
+        <v>13.7</v>
       </c>
       <c r="F191" t="n">
-        <v>169407.8154</v>
+        <v>41655.1535</v>
       </c>
       <c r="G191" t="n">
-        <v>7.7</v>
+        <v>15.7</v>
+      </c>
+      <c r="H191" t="n">
+        <v>9710.217399999998</v>
+      </c>
+      <c r="I191" t="n">
+        <v>2910.0876</v>
+      </c>
+      <c r="J191" t="n">
+        <v>12620.305</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>10752.9902</v>
+        <v>41833.9127</v>
       </c>
       <c r="C192" t="n">
-        <v>26.2</v>
+        <v>15</v>
       </c>
       <c r="D192" t="n">
-        <v>3301.3491</v>
+        <v>12986.5868</v>
       </c>
       <c r="E192" t="n">
-        <v>21.6</v>
+        <v>12.2</v>
       </c>
       <c r="F192" t="n">
-        <v>14054.3393</v>
+        <v>54820.4995</v>
       </c>
       <c r="G192" t="n">
-        <v>25.1</v>
+        <v>14.3</v>
+      </c>
+      <c r="H192" t="n">
+        <v>10019.4514</v>
+      </c>
+      <c r="I192" t="n">
+        <v>3145.8946</v>
+      </c>
+      <c r="J192" t="n">
+        <v>13165.346</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>22104.2439</v>
+        <v>56742.409</v>
       </c>
       <c r="C193" t="n">
-        <v>20</v>
+        <v>16.4</v>
       </c>
       <c r="D193" t="n">
-        <v>6930.6046</v>
+        <v>17919.2935</v>
       </c>
       <c r="E193" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F193" t="n">
-        <v>29034.8485</v>
+        <v>74661.7025</v>
       </c>
       <c r="G193" t="n">
-        <v>19.5</v>
+        <v>16.1</v>
+      </c>
+      <c r="H193" t="n">
+        <v>14908.4963</v>
+      </c>
+      <c r="I193" t="n">
+        <v>4932.706700000001</v>
+      </c>
+      <c r="J193" t="n">
+        <v>19841.203</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>31814.4613</v>
+        <v>65690.6862</v>
       </c>
       <c r="C194" t="n">
-        <v>16.3</v>
+        <v>14.3</v>
       </c>
       <c r="D194" t="n">
-        <v>9840.6922</v>
+        <v>20660.2025</v>
       </c>
       <c r="E194" t="n">
-        <v>13.7</v>
+        <v>12.9</v>
       </c>
       <c r="F194" t="n">
-        <v>41655.1535</v>
+        <v>86350.8887</v>
       </c>
       <c r="G194" t="n">
-        <v>15.7</v>
+        <v>14</v>
+      </c>
+      <c r="H194" t="n">
+        <v>8948.277199999997</v>
+      </c>
+      <c r="I194" t="n">
+        <v>2740.909</v>
+      </c>
+      <c r="J194" t="n">
+        <v>11689.1862</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>41833.9127</v>
+        <v>75150.3167</v>
       </c>
       <c r="C195" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D195" t="n">
-        <v>12986.5868</v>
+        <v>23388.7069</v>
       </c>
       <c r="E195" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="F195" t="n">
-        <v>54820.4995</v>
+        <v>98539.0236</v>
       </c>
       <c r="G195" t="n">
-        <v>14.3</v>
+        <v>12.7</v>
+      </c>
+      <c r="H195" t="n">
+        <v>9459.630499999999</v>
+      </c>
+      <c r="I195" t="n">
+        <v>2728.504400000002</v>
+      </c>
+      <c r="J195" t="n">
+        <v>12188.1349</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>56742.409</v>
+        <v>88537.164</v>
       </c>
       <c r="C196" t="n">
-        <v>16.4</v>
+        <v>10.7</v>
       </c>
       <c r="D196" t="n">
-        <v>17919.2935</v>
+        <v>27468.999</v>
       </c>
       <c r="E196" t="n">
-        <v>15</v>
+        <v>9.1</v>
       </c>
       <c r="F196" t="n">
-        <v>74661.7025</v>
+        <v>116006.163</v>
       </c>
       <c r="G196" t="n">
-        <v>16.1</v>
+        <v>10.3</v>
+      </c>
+      <c r="H196" t="n">
+        <v>13386.84730000001</v>
+      </c>
+      <c r="I196" t="n">
+        <v>4080.292099999999</v>
+      </c>
+      <c r="J196" t="n">
+        <v>17467.1394</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>65690.6862</v>
+        <v>99464.71249999999</v>
       </c>
       <c r="C197" t="n">
-        <v>14.3</v>
+        <v>8.5</v>
       </c>
       <c r="D197" t="n">
-        <v>20660.2025</v>
+        <v>30789.1835</v>
       </c>
       <c r="E197" t="n">
-        <v>12.9</v>
+        <v>7.3</v>
       </c>
       <c r="F197" t="n">
-        <v>86350.8887</v>
+        <v>130253.896</v>
       </c>
       <c r="G197" t="n">
-        <v>14</v>
+        <v>8.199999999999999</v>
+      </c>
+      <c r="H197" t="n">
+        <v>10927.54849999999</v>
+      </c>
+      <c r="I197" t="n">
+        <v>3320.184499999999</v>
+      </c>
+      <c r="J197" t="n">
+        <v>14247.73299999999</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>75150.3167</v>
+        <v>112020.025</v>
       </c>
       <c r="C198" t="n">
-        <v>13</v>
+        <v>8.9</v>
       </c>
       <c r="D198" t="n">
-        <v>23388.7069</v>
+        <v>34548.2943</v>
       </c>
       <c r="E198" t="n">
-        <v>11.7</v>
+        <v>4.9</v>
       </c>
       <c r="F198" t="n">
-        <v>98539.0236</v>
+        <v>146568.3193</v>
       </c>
       <c r="G198" t="n">
-        <v>12.7</v>
+        <v>7.9</v>
+      </c>
+      <c r="H198" t="n">
+        <v>12555.3125</v>
+      </c>
+      <c r="I198" t="n">
+        <v>3759.110800000002</v>
+      </c>
+      <c r="J198" t="n">
+        <v>16314.42330000001</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>88537.164</v>
+        <v>129413.0482</v>
       </c>
       <c r="C199" t="n">
-        <v>10.7</v>
+        <v>9.6</v>
       </c>
       <c r="D199" t="n">
-        <v>27468.999</v>
+        <v>39994.7672</v>
       </c>
       <c r="E199" t="n">
-        <v>9.1</v>
+        <v>1.7</v>
       </c>
       <c r="F199" t="n">
-        <v>116006.163</v>
+        <v>169407.8154</v>
       </c>
       <c r="G199" t="n">
-        <v>10.3</v>
+        <v>7.7</v>
+      </c>
+      <c r="H199" t="n">
+        <v>17393.02320000001</v>
+      </c>
+      <c r="I199" t="n">
+        <v>5446.472900000001</v>
+      </c>
+      <c r="J199" t="n">
+        <v>22839.49609999999</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>109210.8316</v>
+        <v>11947.5196</v>
       </c>
       <c r="C200" t="n">
-        <v>9.800000000000001</v>
+        <v>11.1</v>
       </c>
       <c r="D200" t="n">
-        <v>23906.022</v>
+        <v>2685.119</v>
       </c>
       <c r="E200" t="n">
-        <v>-22.4</v>
+        <v>-18.7</v>
       </c>
       <c r="F200" t="n">
-        <v>133116.8536</v>
+        <v>14632.6386</v>
       </c>
       <c r="G200" t="n">
-        <v>2.2</v>
+        <v>4.1</v>
+      </c>
+      <c r="H200" t="n">
+        <v>11947.5196</v>
+      </c>
+      <c r="I200" t="n">
+        <v>2685.119</v>
+      </c>
+      <c r="J200" t="n">
+        <v>14632.6386</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>122209.5769</v>
+        <v>24356.5808</v>
       </c>
       <c r="C201" t="n">
-        <v>9.1</v>
+        <v>10.2</v>
       </c>
       <c r="D201" t="n">
-        <v>26394.3527</v>
+        <v>5731.821</v>
       </c>
       <c r="E201" t="n">
-        <v>-23.6</v>
+        <v>-17.3</v>
       </c>
       <c r="F201" t="n">
-        <v>148603.9296</v>
+        <v>30088.4018</v>
       </c>
       <c r="G201" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
+      </c>
+      <c r="H201" t="n">
+        <v>12409.0612</v>
+      </c>
+      <c r="I201" t="n">
+        <v>3046.702</v>
+      </c>
+      <c r="J201" t="n">
+        <v>15455.7632</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>140610.2719</v>
+        <v>34208.4754</v>
       </c>
       <c r="C202" t="n">
-        <v>8.699999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="D202" t="n">
-        <v>31044.0865</v>
+        <v>7983.5822</v>
       </c>
       <c r="E202" t="n">
-        <v>-22.4</v>
+        <v>-18.9</v>
       </c>
       <c r="F202" t="n">
-        <v>171654.3616</v>
+        <v>42192.0576</v>
       </c>
       <c r="G202" t="n">
         <v>1.3</v>
       </c>
+      <c r="H202" t="n">
+        <v>9851.894600000003</v>
+      </c>
+      <c r="I202" t="n">
+        <v>2251.7612</v>
+      </c>
+      <c r="J202" t="n">
+        <v>12103.6558</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>11947.5196</v>
+        <v>45890.6939</v>
       </c>
       <c r="C203" t="n">
-        <v>11.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D203" t="n">
-        <v>2685.119</v>
+        <v>10518.3988</v>
       </c>
       <c r="E203" t="n">
-        <v>-18.7</v>
+        <v>-19</v>
       </c>
       <c r="F203" t="n">
-        <v>14632.6386</v>
+        <v>56409.0927</v>
       </c>
       <c r="G203" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
+      </c>
+      <c r="H203" t="n">
+        <v>11682.2185</v>
+      </c>
+      <c r="I203" t="n">
+        <v>2534.816600000001</v>
+      </c>
+      <c r="J203" t="n">
+        <v>14217.0351</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>24356.5808</v>
+        <v>62550.8895</v>
       </c>
       <c r="C204" t="n">
         <v>10.2</v>
       </c>
       <c r="D204" t="n">
-        <v>5731.821</v>
+        <v>14592.3921</v>
       </c>
       <c r="E204" t="n">
-        <v>-17.3</v>
+        <v>-18.6</v>
       </c>
       <c r="F204" t="n">
-        <v>30088.4018</v>
+        <v>77143.2816</v>
       </c>
       <c r="G204" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
+      </c>
+      <c r="H204" t="n">
+        <v>16660.1956</v>
+      </c>
+      <c r="I204" t="n">
+        <v>4073.993299999998</v>
+      </c>
+      <c r="J204" t="n">
+        <v>20734.1889</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>34208.4754</v>
+        <v>73030.51300000001</v>
       </c>
       <c r="C205" t="n">
-        <v>7.5</v>
+        <v>11.2</v>
       </c>
       <c r="D205" t="n">
-        <v>7983.5822</v>
+        <v>16959.0172</v>
       </c>
       <c r="E205" t="n">
-        <v>-18.9</v>
+        <v>-17.9</v>
       </c>
       <c r="F205" t="n">
-        <v>42192.0576</v>
+        <v>89989.53019999999</v>
       </c>
       <c r="G205" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
+      </c>
+      <c r="H205" t="n">
+        <v>10479.62350000001</v>
+      </c>
+      <c r="I205" t="n">
+        <v>2366.625099999999</v>
+      </c>
+      <c r="J205" t="n">
+        <v>12846.24859999999</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>45890.6939</v>
+        <v>83549.7751</v>
       </c>
       <c r="C206" t="n">
-        <v>9.699999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="D206" t="n">
-        <v>10518.3988</v>
+        <v>18923.7518</v>
       </c>
       <c r="E206" t="n">
-        <v>-19</v>
+        <v>-19.1</v>
       </c>
       <c r="F206" t="n">
-        <v>56409.0927</v>
+        <v>102473.5269</v>
       </c>
       <c r="G206" t="n">
-        <v>2.9</v>
+        <v>4</v>
+      </c>
+      <c r="H206" t="n">
+        <v>10519.26209999999</v>
+      </c>
+      <c r="I206" t="n">
+        <v>1964.7346</v>
+      </c>
+      <c r="J206" t="n">
+        <v>12483.9967</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>62550.8895</v>
+        <v>97549.38710000001</v>
       </c>
       <c r="C207" t="n">
         <v>10.2</v>
       </c>
       <c r="D207" t="n">
-        <v>14592.3921</v>
+        <v>21763.3876</v>
       </c>
       <c r="E207" t="n">
-        <v>-18.6</v>
+        <v>-20.8</v>
       </c>
       <c r="F207" t="n">
-        <v>77143.2816</v>
+        <v>119312.7747</v>
       </c>
       <c r="G207" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
+      </c>
+      <c r="H207" t="n">
+        <v>13999.61200000001</v>
+      </c>
+      <c r="I207" t="n">
+        <v>2839.6358</v>
+      </c>
+      <c r="J207" t="n">
+        <v>16839.2478</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>73030.51300000001</v>
+        <v>109210.8316</v>
       </c>
       <c r="C208" t="n">
-        <v>11.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D208" t="n">
-        <v>16959.0172</v>
+        <v>23906.022</v>
       </c>
       <c r="E208" t="n">
-        <v>-17.9</v>
+        <v>-22.4</v>
       </c>
       <c r="F208" t="n">
-        <v>89989.53019999999</v>
+        <v>133116.8536</v>
       </c>
       <c r="G208" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
+      </c>
+      <c r="H208" t="n">
+        <v>11661.4445</v>
+      </c>
+      <c r="I208" t="n">
+        <v>2142.634400000003</v>
+      </c>
+      <c r="J208" t="n">
+        <v>13804.07890000001</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>83549.7751</v>
+        <v>122209.5769</v>
       </c>
       <c r="C209" t="n">
-        <v>11.2</v>
+        <v>9.1</v>
       </c>
       <c r="D209" t="n">
-        <v>18923.7518</v>
+        <v>26394.3527</v>
       </c>
       <c r="E209" t="n">
-        <v>-19.1</v>
+        <v>-23.6</v>
       </c>
       <c r="F209" t="n">
-        <v>102473.5269</v>
+        <v>148603.9296</v>
       </c>
       <c r="G209" t="n">
-        <v>4</v>
+        <v>1.4</v>
+      </c>
+      <c r="H209" t="n">
+        <v>12998.7453</v>
+      </c>
+      <c r="I209" t="n">
+        <v>2488.330699999999</v>
+      </c>
+      <c r="J209" t="n">
+        <v>15487.076</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>97549.38710000001</v>
+        <v>140610.2719</v>
       </c>
       <c r="C210" t="n">
-        <v>10.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D210" t="n">
-        <v>21763.3876</v>
+        <v>31044.0865</v>
       </c>
       <c r="E210" t="n">
-        <v>-20.8</v>
+        <v>-22.4</v>
       </c>
       <c r="F210" t="n">
-        <v>119312.7747</v>
+        <v>171654.3616</v>
       </c>
       <c r="G210" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
+      </c>
+      <c r="H210" t="n">
+        <v>18400.69499999999</v>
+      </c>
+      <c r="I210" t="n">
+        <v>4649.733800000002</v>
+      </c>
+      <c r="J210" t="n">
+        <v>23050.432</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>114213.2396</v>
+        <v>11887.3111</v>
       </c>
       <c r="C211" t="n">
-        <v>4.6</v>
+        <v>-0.5</v>
       </c>
       <c r="D211" t="n">
-        <v>19037.4396</v>
+        <v>2214.8339</v>
       </c>
       <c r="E211" t="n">
-        <v>-20.4</v>
+        <v>-17.5</v>
       </c>
       <c r="F211" t="n">
-        <v>133250.6792</v>
+        <v>14102.145</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1</v>
+        <v>-3.6</v>
+      </c>
+      <c r="H211" t="n">
+        <v>11887.3111</v>
+      </c>
+      <c r="I211" t="n">
+        <v>2214.8339</v>
+      </c>
+      <c r="J211" t="n">
+        <v>14102.145</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>127610.9979</v>
+        <v>25133.0784</v>
       </c>
       <c r="C212" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="D212" t="n">
-        <v>21294.0196</v>
+        <v>4695.8626</v>
       </c>
       <c r="E212" t="n">
-        <v>-19.3</v>
+        <v>-18.1</v>
       </c>
       <c r="F212" t="n">
-        <v>148905.0175</v>
+        <v>29828.941</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2</v>
+        <v>-0.9</v>
+      </c>
+      <c r="H212" t="n">
+        <v>13245.7673</v>
+      </c>
+      <c r="I212" t="n">
+        <v>2481.0287</v>
+      </c>
+      <c r="J212" t="n">
+        <v>15726.796</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>146664.1306</v>
+        <v>35666.9249</v>
       </c>
       <c r="C213" t="n">
         <v>4.3</v>
       </c>
       <c r="D213" t="n">
-        <v>24893.737</v>
+        <v>6418.527</v>
       </c>
       <c r="E213" t="n">
-        <v>-19.8</v>
+        <v>-19.6</v>
       </c>
       <c r="F213" t="n">
-        <v>171557.8676</v>
+        <v>42085.4519</v>
       </c>
       <c r="G213" t="n">
-        <v>-0.1</v>
+        <v>-0.3</v>
+      </c>
+      <c r="H213" t="n">
+        <v>10533.8465</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1722.6644</v>
+      </c>
+      <c r="J213" t="n">
+        <v>12256.5109</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>11887.3111</v>
+        <v>47092.9695</v>
       </c>
       <c r="C214" t="n">
-        <v>-0.5</v>
+        <v>2.6</v>
       </c>
       <c r="D214" t="n">
-        <v>2214.8339</v>
+        <v>8425.083699999999</v>
       </c>
       <c r="E214" t="n">
-        <v>-17.5</v>
+        <v>-19.9</v>
       </c>
       <c r="F214" t="n">
-        <v>14102.145</v>
+        <v>55518.0532</v>
       </c>
       <c r="G214" t="n">
-        <v>-3.6</v>
+        <v>-1.6</v>
+      </c>
+      <c r="H214" t="n">
+        <v>11426.0446</v>
+      </c>
+      <c r="I214" t="n">
+        <v>2006.556699999999</v>
+      </c>
+      <c r="J214" t="n">
+        <v>13432.6013</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>25133.0784</v>
+        <v>64098.6222</v>
       </c>
       <c r="C215" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="D215" t="n">
-        <v>4695.8626</v>
+        <v>11686.9685</v>
       </c>
       <c r="E215" t="n">
-        <v>-18.1</v>
+        <v>-19.9</v>
       </c>
       <c r="F215" t="n">
-        <v>29828.941</v>
+        <v>75785.5907</v>
       </c>
       <c r="G215" t="n">
-        <v>-0.9</v>
+        <v>-1.8</v>
+      </c>
+      <c r="H215" t="n">
+        <v>17005.6527</v>
+      </c>
+      <c r="I215" t="n">
+        <v>3261.884800000002</v>
+      </c>
+      <c r="J215" t="n">
+        <v>20267.5375</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>35666.9249</v>
+        <v>75404.08379999999</v>
       </c>
       <c r="C216" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="D216" t="n">
-        <v>6418.527</v>
+        <v>13378.8305</v>
       </c>
       <c r="E216" t="n">
-        <v>-19.6</v>
+        <v>-21.1</v>
       </c>
       <c r="F216" t="n">
-        <v>42085.4519</v>
+        <v>88782.9143</v>
       </c>
       <c r="G216" t="n">
-        <v>-0.3</v>
+        <v>-1.3</v>
+      </c>
+      <c r="H216" t="n">
+        <v>11305.4616</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1691.861999999999</v>
+      </c>
+      <c r="J216" t="n">
+        <v>12997.3236</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>47092.9695</v>
+        <v>86870.24830000001</v>
       </c>
       <c r="C217" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="D217" t="n">
-        <v>8425.083699999999</v>
+        <v>14978.3129</v>
       </c>
       <c r="E217" t="n">
-        <v>-19.9</v>
+        <v>-20.8</v>
       </c>
       <c r="F217" t="n">
-        <v>55518.0532</v>
+        <v>101848.5612</v>
       </c>
       <c r="G217" t="n">
-        <v>-1.6</v>
+        <v>-0.6</v>
+      </c>
+      <c r="H217" t="n">
+        <v>11466.16450000001</v>
+      </c>
+      <c r="I217" t="n">
+        <v>1599.482400000001</v>
+      </c>
+      <c r="J217" t="n">
+        <v>13065.64689999999</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>64098.6222</v>
+        <v>101962.7256</v>
       </c>
       <c r="C218" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="D218" t="n">
-        <v>11686.9685</v>
+        <v>17215.8072</v>
       </c>
       <c r="E218" t="n">
-        <v>-19.9</v>
+        <v>-20.9</v>
       </c>
       <c r="F218" t="n">
-        <v>75785.5907</v>
+        <v>119178.5328</v>
       </c>
       <c r="G218" t="n">
-        <v>-1.8</v>
+        <v>-0.1</v>
+      </c>
+      <c r="H218" t="n">
+        <v>15092.4773</v>
+      </c>
+      <c r="I218" t="n">
+        <v>2237.494299999998</v>
+      </c>
+      <c r="J218" t="n">
+        <v>17329.9716</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>75404.08379999999</v>
+        <v>114213.2396</v>
       </c>
       <c r="C219" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="D219" t="n">
-        <v>13378.8305</v>
+        <v>19037.4396</v>
       </c>
       <c r="E219" t="n">
-        <v>-21.1</v>
+        <v>-20.4</v>
       </c>
       <c r="F219" t="n">
-        <v>88782.9143</v>
+        <v>133250.6792</v>
       </c>
       <c r="G219" t="n">
-        <v>-1.3</v>
+        <v>0.1</v>
+      </c>
+      <c r="H219" t="n">
+        <v>12250.514</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1821.632400000002</v>
+      </c>
+      <c r="J219" t="n">
+        <v>14072.14640000001</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>86870.24830000001</v>
+        <v>127610.9979</v>
       </c>
       <c r="C220" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D220" t="n">
-        <v>14978.3129</v>
+        <v>21294.0196</v>
       </c>
       <c r="E220" t="n">
-        <v>-20.8</v>
+        <v>-19.3</v>
       </c>
       <c r="F220" t="n">
-        <v>101848.5612</v>
+        <v>148905.0175</v>
       </c>
       <c r="G220" t="n">
-        <v>-0.6</v>
+        <v>0.2</v>
+      </c>
+      <c r="H220" t="n">
+        <v>13397.7583</v>
+      </c>
+      <c r="I220" t="n">
+        <v>2256.579999999998</v>
+      </c>
+      <c r="J220" t="n">
+        <v>15654.33829999997</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>101962.7256</v>
+        <v>146664.1306</v>
       </c>
       <c r="C221" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="D221" t="n">
-        <v>17215.8072</v>
+        <v>24893.737</v>
       </c>
       <c r="E221" t="n">
-        <v>-20.9</v>
+        <v>-19.8</v>
       </c>
       <c r="F221" t="n">
-        <v>119178.5328</v>
+        <v>171557.8676</v>
       </c>
       <c r="G221" t="n">
         <v>-0.1</v>
       </c>
+      <c r="H221" t="n">
+        <v>19053.1327</v>
+      </c>
+      <c r="I221" t="n">
+        <v>3599.717400000001</v>
+      </c>
+      <c r="J221" t="n">
+        <v>22652.85010000001</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>116675.7045</v>
+        <v>7266.6701</v>
       </c>
       <c r="C222" t="n">
-        <v>2.2</v>
+        <v>-38.9</v>
       </c>
       <c r="D222" t="n">
-        <v>16618.0975</v>
+        <v>1208.2799</v>
       </c>
       <c r="E222" t="n">
-        <v>-12.7</v>
+        <v>-45.4</v>
       </c>
       <c r="F222" t="n">
-        <v>133293.802</v>
+        <v>8474.950000000001</v>
       </c>
       <c r="G222" t="n">
-        <v>0</v>
+        <v>-39.9</v>
+      </c>
+      <c r="H222" t="n">
+        <v>7266.6701</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1208.2799</v>
+      </c>
+      <c r="J222" t="n">
+        <v>8474.950000000001</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>131840.566</v>
+        <v>18890.0024</v>
       </c>
       <c r="C223" t="n">
-        <v>3.3</v>
+        <v>-24.8</v>
       </c>
       <c r="D223" t="n">
-        <v>18993.881</v>
+        <v>3088.3215</v>
       </c>
       <c r="E223" t="n">
-        <v>-10.8</v>
+        <v>-34.2</v>
       </c>
       <c r="F223" t="n">
-        <v>150834.447</v>
+        <v>21978.3239</v>
       </c>
       <c r="G223" t="n">
-        <v>1.3</v>
+        <v>-26.3</v>
+      </c>
+      <c r="H223" t="n">
+        <v>11623.3323</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1880.0416</v>
+      </c>
+      <c r="J223" t="n">
+        <v>13503.3739</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>153699.7287</v>
+        <v>29361.3812</v>
       </c>
       <c r="C224" t="n">
-        <v>4.8</v>
+        <v>-17.7</v>
       </c>
       <c r="D224" t="n">
-        <v>22386.493</v>
+        <v>4611.1997</v>
       </c>
       <c r="E224" t="n">
-        <v>-10.1</v>
+        <v>-28.2</v>
       </c>
       <c r="F224" t="n">
-        <v>176086.2217</v>
+        <v>33972.5809</v>
       </c>
       <c r="G224" t="n">
-        <v>2.6</v>
+        <v>-19.3</v>
+      </c>
+      <c r="H224" t="n">
+        <v>10471.3788</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1522.8782</v>
+      </c>
+      <c r="J224" t="n">
+        <v>11994.257</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>7266.6701</v>
+        <v>42220.2838</v>
       </c>
       <c r="C225" t="n">
-        <v>-38.9</v>
+        <v>-10.3</v>
       </c>
       <c r="D225" t="n">
-        <v>1208.2799</v>
+        <v>6482.6849</v>
       </c>
       <c r="E225" t="n">
-        <v>-45.4</v>
+        <v>-23.1</v>
       </c>
       <c r="F225" t="n">
-        <v>8474.950000000001</v>
+        <v>48702.9687</v>
       </c>
       <c r="G225" t="n">
-        <v>-39.9</v>
+        <v>-12.3</v>
+      </c>
+      <c r="H225" t="n">
+        <v>12858.9026</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1871.4852</v>
+      </c>
+      <c r="J225" t="n">
+        <v>14730.3878</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>18890.0024</v>
+        <v>60292.4369</v>
       </c>
       <c r="C226" t="n">
-        <v>-24.8</v>
+        <v>-5.9</v>
       </c>
       <c r="D226" t="n">
-        <v>3088.3215</v>
+        <v>9111.241</v>
       </c>
       <c r="E226" t="n">
-        <v>-34.2</v>
+        <v>-22</v>
       </c>
       <c r="F226" t="n">
-        <v>21978.3239</v>
+        <v>69403.6779</v>
       </c>
       <c r="G226" t="n">
-        <v>-26.3</v>
+        <v>-8.4</v>
+      </c>
+      <c r="H226" t="n">
+        <v>18072.1531</v>
+      </c>
+      <c r="I226" t="n">
+        <v>2628.5561</v>
+      </c>
+      <c r="J226" t="n">
+        <v>20700.7092</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>29361.3812</v>
+        <v>72817.7497</v>
       </c>
       <c r="C227" t="n">
-        <v>-17.7</v>
+        <v>-3.4</v>
       </c>
       <c r="D227" t="n">
-        <v>4611.1997</v>
+        <v>10813.6123</v>
       </c>
       <c r="E227" t="n">
-        <v>-28.2</v>
+        <v>-19.2</v>
       </c>
       <c r="F227" t="n">
-        <v>33972.5809</v>
+        <v>83631.36199999999</v>
       </c>
       <c r="G227" t="n">
-        <v>-19.3</v>
+        <v>-5.8</v>
+      </c>
+      <c r="H227" t="n">
+        <v>12525.3128</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1702.371300000001</v>
+      </c>
+      <c r="J227" t="n">
+        <v>14227.6841</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>42220.2838</v>
+        <v>86039.56359999999</v>
       </c>
       <c r="C228" t="n">
-        <v>-10.3</v>
+        <v>-1</v>
       </c>
       <c r="D228" t="n">
-        <v>6482.6849</v>
+        <v>12446.3909</v>
       </c>
       <c r="E228" t="n">
-        <v>-23.1</v>
+        <v>-16.9</v>
       </c>
       <c r="F228" t="n">
-        <v>48702.9687</v>
+        <v>98485.95450000001</v>
       </c>
       <c r="G228" t="n">
-        <v>-12.3</v>
+        <v>-3.3</v>
+      </c>
+      <c r="H228" t="n">
+        <v>13221.81389999999</v>
+      </c>
+      <c r="I228" t="n">
+        <v>1632.7786</v>
+      </c>
+      <c r="J228" t="n">
+        <v>14854.59250000001</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>60292.4369</v>
+        <v>102361.5076</v>
       </c>
       <c r="C229" t="n">
-        <v>-5.9</v>
+        <v>0.4</v>
       </c>
       <c r="D229" t="n">
-        <v>9111.241</v>
+        <v>14711.1653</v>
       </c>
       <c r="E229" t="n">
-        <v>-22</v>
+        <v>-14.5</v>
       </c>
       <c r="F229" t="n">
-        <v>69403.6779</v>
+        <v>117072.6729</v>
       </c>
       <c r="G229" t="n">
-        <v>-8.4</v>
+        <v>-1.8</v>
+      </c>
+      <c r="H229" t="n">
+        <v>16321.944</v>
+      </c>
+      <c r="I229" t="n">
+        <v>2264.7744</v>
+      </c>
+      <c r="J229" t="n">
+        <v>18586.7184</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>72817.7497</v>
+        <v>116675.7045</v>
       </c>
       <c r="C230" t="n">
-        <v>-3.4</v>
+        <v>2.2</v>
       </c>
       <c r="D230" t="n">
-        <v>10813.6123</v>
+        <v>16618.0975</v>
       </c>
       <c r="E230" t="n">
-        <v>-19.2</v>
+        <v>-12.7</v>
       </c>
       <c r="F230" t="n">
-        <v>83631.36199999999</v>
+        <v>133293.802</v>
       </c>
       <c r="G230" t="n">
-        <v>-5.8</v>
+        <v>0</v>
+      </c>
+      <c r="H230" t="n">
+        <v>14314.19690000001</v>
+      </c>
+      <c r="I230" t="n">
+        <v>1906.932199999999</v>
+      </c>
+      <c r="J230" t="n">
+        <v>16221.12909999999</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>86039.56359999999</v>
+        <v>131840.566</v>
       </c>
       <c r="C231" t="n">
-        <v>-1</v>
+        <v>3.3</v>
       </c>
       <c r="D231" t="n">
-        <v>12446.3909</v>
+        <v>18993.881</v>
       </c>
       <c r="E231" t="n">
-        <v>-16.9</v>
+        <v>-10.8</v>
       </c>
       <c r="F231" t="n">
-        <v>98485.95450000001</v>
+        <v>150834.447</v>
       </c>
       <c r="G231" t="n">
-        <v>-3.3</v>
+        <v>1.3</v>
+      </c>
+      <c r="H231" t="n">
+        <v>15164.86149999998</v>
+      </c>
+      <c r="I231" t="n">
+        <v>2375.783500000001</v>
+      </c>
+      <c r="J231" t="n">
+        <v>17540.64499999999</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>102361.5076</v>
+        <v>153699.7287</v>
       </c>
       <c r="C232" t="n">
-        <v>0.4</v>
+        <v>4.8</v>
       </c>
       <c r="D232" t="n">
-        <v>14711.1653</v>
+        <v>22386.493</v>
       </c>
       <c r="E232" t="n">
-        <v>-14.5</v>
+        <v>-10.1</v>
       </c>
       <c r="F232" t="n">
-        <v>117072.6729</v>
+        <v>176086.2217</v>
       </c>
       <c r="G232" t="n">
-        <v>-1.8</v>
+        <v>2.6</v>
+      </c>
+      <c r="H232" t="n">
+        <v>21859.16270000002</v>
+      </c>
+      <c r="I232" t="n">
+        <v>3392.611999999997</v>
+      </c>
+      <c r="J232" t="n">
+        <v>25251.77470000001</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>125705.6631</v>
+        <v>15251.0461</v>
       </c>
       <c r="C233" t="n">
-        <v>7.7</v>
+        <v>109.9</v>
       </c>
       <c r="D233" t="n">
-        <v>17335.0514</v>
+        <v>2112.0911</v>
       </c>
       <c r="E233" t="n">
-        <v>4.3</v>
+        <v>74.8</v>
       </c>
       <c r="F233" t="n">
-        <v>143040.7145</v>
+        <v>17363.1372</v>
       </c>
       <c r="G233" t="n">
-        <v>7.3</v>
+        <v>104.9</v>
+      </c>
+      <c r="H233" t="n">
+        <v>15251.0461</v>
+      </c>
+      <c r="I233" t="n">
+        <v>2112.0911</v>
+      </c>
+      <c r="J233" t="n">
+        <v>17363.1372</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>138489.7644</v>
+        <v>31805.5932</v>
       </c>
       <c r="C234" t="n">
-        <v>5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D234" t="n">
-        <v>19640.9664</v>
+        <v>4201.4551</v>
       </c>
       <c r="E234" t="n">
-        <v>3.4</v>
+        <v>36</v>
       </c>
       <c r="F234" t="n">
-        <v>158130.7308</v>
+        <v>36007.0483</v>
       </c>
       <c r="G234" t="n">
-        <v>4.8</v>
+        <v>63.8</v>
+      </c>
+      <c r="H234" t="n">
+        <v>16554.5471</v>
+      </c>
+      <c r="I234" t="n">
+        <v>2089.364</v>
+      </c>
+      <c r="J234" t="n">
+        <v>18643.9111</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>156120.7185</v>
+        <v>44523.9063</v>
       </c>
       <c r="C235" t="n">
-        <v>1.6</v>
+        <v>51.6</v>
       </c>
       <c r="D235" t="n">
-        <v>23312.6914</v>
+        <v>5781.0977</v>
       </c>
       <c r="E235" t="n">
-        <v>4.1</v>
+        <v>25.4</v>
       </c>
       <c r="F235" t="n">
-        <v>179433.4099</v>
+        <v>50305.004</v>
       </c>
       <c r="G235" t="n">
-        <v>1.9</v>
+        <v>48.1</v>
+      </c>
+      <c r="H235" t="n">
+        <v>12718.3131</v>
+      </c>
+      <c r="I235" t="n">
+        <v>1579.6426</v>
+      </c>
+      <c r="J235" t="n">
+        <v>14297.9557</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>15251.0461</v>
+        <v>58887.8006</v>
       </c>
       <c r="C236" t="n">
-        <v>109.9</v>
+        <v>39.5</v>
       </c>
       <c r="D236" t="n">
-        <v>2112.0911</v>
+        <v>7495.5221</v>
       </c>
       <c r="E236" t="n">
-        <v>74.8</v>
+        <v>15.6</v>
       </c>
       <c r="F236" t="n">
-        <v>17363.1372</v>
+        <v>66383.3227</v>
       </c>
       <c r="G236" t="n">
-        <v>104.9</v>
+        <v>36.3</v>
+      </c>
+      <c r="H236" t="n">
+        <v>14363.8943</v>
+      </c>
+      <c r="I236" t="n">
+        <v>1714.4244</v>
+      </c>
+      <c r="J236" t="n">
+        <v>16078.3187</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>31805.5932</v>
+        <v>78401.2782</v>
       </c>
       <c r="C237" t="n">
-        <v>68.40000000000001</v>
+        <v>30</v>
       </c>
       <c r="D237" t="n">
-        <v>4201.4551</v>
+        <v>10234.0701</v>
       </c>
       <c r="E237" t="n">
-        <v>36</v>
+        <v>12.3</v>
       </c>
       <c r="F237" t="n">
-        <v>36007.0483</v>
+        <v>88635.3483</v>
       </c>
       <c r="G237" t="n">
-        <v>63.8</v>
+        <v>27.7</v>
+      </c>
+      <c r="H237" t="n">
+        <v>19513.4776</v>
+      </c>
+      <c r="I237" t="n">
+        <v>2738.548000000001</v>
+      </c>
+      <c r="J237" t="n">
+        <v>22252.02559999999</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>44523.9063</v>
+        <v>89816.1136</v>
       </c>
       <c r="C238" t="n">
-        <v>51.6</v>
+        <v>23.3</v>
       </c>
       <c r="D238" t="n">
-        <v>5781.0977</v>
+        <v>11832.0621</v>
       </c>
       <c r="E238" t="n">
-        <v>25.4</v>
+        <v>9.4</v>
       </c>
       <c r="F238" t="n">
-        <v>50305.004</v>
+        <v>101648.1757</v>
       </c>
       <c r="G238" t="n">
-        <v>48.1</v>
+        <v>21.5</v>
+      </c>
+      <c r="H238" t="n">
+        <v>11414.8354</v>
+      </c>
+      <c r="I238" t="n">
+        <v>1597.991999999998</v>
+      </c>
+      <c r="J238" t="n">
+        <v>13012.82740000001</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>58887.8006</v>
+        <v>100849.1325</v>
       </c>
       <c r="C239" t="n">
-        <v>39.5</v>
+        <v>17.2</v>
       </c>
       <c r="D239" t="n">
-        <v>7495.5221</v>
+        <v>13343.6763</v>
       </c>
       <c r="E239" t="n">
-        <v>15.6</v>
+        <v>7.2</v>
       </c>
       <c r="F239" t="n">
-        <v>66383.3227</v>
+        <v>114192.8088</v>
       </c>
       <c r="G239" t="n">
-        <v>36.3</v>
+        <v>15.9</v>
+      </c>
+      <c r="H239" t="n">
+        <v>11033.01890000001</v>
+      </c>
+      <c r="I239" t="n">
+        <v>1511.6142</v>
+      </c>
+      <c r="J239" t="n">
+        <v>12544.63309999999</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>78401.2782</v>
+        <v>114728.8908</v>
       </c>
       <c r="C240" t="n">
-        <v>30</v>
+        <v>12.1</v>
       </c>
       <c r="D240" t="n">
-        <v>10234.0701</v>
+        <v>15602.8847</v>
       </c>
       <c r="E240" t="n">
-        <v>12.3</v>
+        <v>6.1</v>
       </c>
       <c r="F240" t="n">
-        <v>88635.3483</v>
+        <v>130331.7755</v>
       </c>
       <c r="G240" t="n">
-        <v>27.7</v>
+        <v>11.3</v>
+      </c>
+      <c r="H240" t="n">
+        <v>13879.75829999999</v>
+      </c>
+      <c r="I240" t="n">
+        <v>2259.208400000001</v>
+      </c>
+      <c r="J240" t="n">
+        <v>16138.9667</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>89816.1136</v>
+        <v>125705.6631</v>
       </c>
       <c r="C241" t="n">
-        <v>23.3</v>
+        <v>7.7</v>
       </c>
       <c r="D241" t="n">
-        <v>11832.0621</v>
+        <v>17335.0514</v>
       </c>
       <c r="E241" t="n">
-        <v>9.4</v>
+        <v>4.3</v>
       </c>
       <c r="F241" t="n">
-        <v>101648.1757</v>
+        <v>143040.7145</v>
       </c>
       <c r="G241" t="n">
-        <v>21.5</v>
+        <v>7.3</v>
+      </c>
+      <c r="H241" t="n">
+        <v>10976.77230000001</v>
+      </c>
+      <c r="I241" t="n">
+        <v>1732.1667</v>
+      </c>
+      <c r="J241" t="n">
+        <v>12708.939</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>100849.1325</v>
+        <v>138489.7644</v>
       </c>
       <c r="C242" t="n">
-        <v>17.2</v>
+        <v>5</v>
       </c>
       <c r="D242" t="n">
-        <v>13343.6763</v>
+        <v>19640.9664</v>
       </c>
       <c r="E242" t="n">
-        <v>7.2</v>
+        <v>3.4</v>
       </c>
       <c r="F242" t="n">
-        <v>114192.8088</v>
+        <v>158130.7308</v>
       </c>
       <c r="G242" t="n">
-        <v>15.9</v>
+        <v>4.8</v>
+      </c>
+      <c r="H242" t="n">
+        <v>12784.10129999998</v>
+      </c>
+      <c r="I242" t="n">
+        <v>2305.915000000001</v>
+      </c>
+      <c r="J242" t="n">
+        <v>15090.01629999999</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>114728.8908</v>
+        <v>156120.7185</v>
       </c>
       <c r="C243" t="n">
-        <v>12.1</v>
+        <v>1.6</v>
       </c>
       <c r="D243" t="n">
-        <v>15602.8847</v>
+        <v>23312.6914</v>
       </c>
       <c r="E243" t="n">
-        <v>6.1</v>
+        <v>4.1</v>
       </c>
       <c r="F243" t="n">
-        <v>130331.7755</v>
+        <v>179433.4099</v>
       </c>
       <c r="G243" t="n">
-        <v>11.3</v>
+        <v>1.9</v>
+      </c>
+      <c r="H243" t="n">
+        <v>17630.9541</v>
+      </c>
+      <c r="I243" t="n">
+        <v>3671.724999999999</v>
+      </c>
+      <c r="J243" t="n">
+        <v>21302.67910000001</v>
       </c>
     </row>
   </sheetData>
